--- a/crowd_only/data/final_eval/analysis/crowd_testset_perfect_ner_errors.xlsx
+++ b/crowd_only/data/final_eval/analysis/crowd_testset_perfect_ner_errors.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="345">
   <si>
     <t>pmid</t>
   </si>
@@ -371,7 +371,7 @@
     <t>https://crowdflower.com/jobs/767262/units/773932578</t>
   </si>
   <si>
-    <t>gold_error</t>
+    <t>missing_relation</t>
   </si>
   <si>
     <t>Trimethaphan caused different results depending on which rat type it was. I think the gold went with tachycardia because the sham rats were not given the lesion?</t>
@@ -401,10 +401,7 @@
     <t>https://crowdflower.com/jobs/767262/units/773932960</t>
   </si>
   <si>
-    <t>ambiguous</t>
-  </si>
-  <si>
-    <t>Disagreement with the gold arises from whether “hypersensitivity” is different from “hypersensiitivity to sodium pentobarbital. Also gold used barium chloride, when ostensibly the chloride is just a way to deliver barium.</t>
+    <t>Disagreement with the gold arises from whether “hypersensitivity” is different from “hypersensitivity to sodium pentobarbital. Also gold used barium chloride, when ostensibly the chloride is just a way to deliver barium.</t>
   </si>
   <si>
     <t>https://crowdflower.com/jobs/767262/units/773932961</t>
@@ -458,9 +455,6 @@
     <t>https://crowdflower.com/jobs/767262/units/773933843</t>
   </si>
   <si>
-    <t>gold_inconsistent</t>
-  </si>
-  <si>
     <t>Gold is inconsistent with how it treats chemical disease statements.</t>
   </si>
   <si>
@@ -488,9 +482,6 @@
     <t>https://crowdflower.com/jobs/767262/units/773931741</t>
   </si>
   <si>
-    <t>ner_error</t>
-  </si>
-  <si>
     <t>Rapamycin is highlighted as a chemical, but in context the real concept is mTOR inhibitors. We have seen that the crowd is terrible at recognizing bad NER.</t>
   </si>
   <si>
@@ -755,6 +746,9 @@
     <t>https://crowdflower.com/jobs/767262/units/773932434</t>
   </si>
   <si>
+    <t>false_relation</t>
+  </si>
+  <si>
     <t>Text never says that EACA causes SAH. If anything, it only says that EACA is good for treating rebleeding for patients with SAH.</t>
   </si>
   <si>
@@ -963,9 +957,6 @@
   </si>
   <si>
     <t>https://crowdflower.com/jobs/767273/units/773937562</t>
-  </si>
-  <si>
-    <t>implicit_relation</t>
   </si>
   <si>
     <t>Text states that rate of a disease is same between two groups treated with a drug. This does not necessarily mean that the drug causes the disease, but does imply it. Grey area in my opinion.</t>
@@ -1189,8 +1180,8 @@
   </sheetPr>
   <dimension ref="A1:L122"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L47" activeCellId="0" sqref="L47"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K105" activeCellId="0" sqref="K105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2356,7 +2347,7 @@
         <v>1</v>
       </c>
       <c r="I48" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" s="0" t="n">
         <v>0</v>
@@ -2368,7 +2359,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
         <v>3975902</v>
       </c>
@@ -2400,10 +2391,10 @@
         <v>0</v>
       </c>
       <c r="K49" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="L49" s="0" t="s">
         <v>128</v>
-      </c>
-      <c r="L49" s="0" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2423,7 +2414,7 @@
         <v>4</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G50" s="0" t="s">
         <v>114</v>
@@ -2438,10 +2429,10 @@
         <v>0</v>
       </c>
       <c r="K50" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="L50" s="0" t="s">
         <v>128</v>
-      </c>
-      <c r="L50" s="0" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2449,10 +2440,10 @@
         <v>3987172</v>
       </c>
       <c r="B51" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C51" s="0" t="s">
         <v>131</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>132</v>
       </c>
       <c r="D51" s="0" t="s">
         <v>14</v>
@@ -2461,7 +2452,7 @@
         <v>5</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G51" s="0" t="s">
         <v>114</v>
@@ -2479,7 +2470,7 @@
         <v>118</v>
       </c>
       <c r="L51" s="0" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2487,10 +2478,10 @@
         <v>3990093</v>
       </c>
       <c r="B52" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C52" s="0" t="s">
         <v>135</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>136</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>14</v>
@@ -2499,7 +2490,7 @@
         <v>4</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G52" s="0" t="s">
         <v>114</v>
@@ -2517,7 +2508,7 @@
         <v>123</v>
       </c>
       <c r="L52" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2525,10 +2516,10 @@
         <v>3990093</v>
       </c>
       <c r="B53" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C53" s="0" t="s">
         <v>135</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>136</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>14</v>
@@ -2537,7 +2528,7 @@
         <v>4</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G53" s="0" t="s">
         <v>114</v>
@@ -2555,7 +2546,7 @@
         <v>123</v>
       </c>
       <c r="L53" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2563,10 +2554,10 @@
         <v>10939760</v>
       </c>
       <c r="B54" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C54" s="0" t="s">
         <v>140</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>141</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>14</v>
@@ -2575,7 +2566,7 @@
         <v>5</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G54" s="0" t="s">
         <v>114</v>
@@ -2593,18 +2584,18 @@
         <v>118</v>
       </c>
       <c r="L54" s="0" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
         <v>12828076</v>
       </c>
       <c r="B55" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="C55" s="0" t="s">
         <v>144</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>145</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>14</v>
@@ -2613,7 +2604,7 @@
         <v>4</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G55" s="0" t="s">
         <v>114</v>
@@ -2628,10 +2619,10 @@
         <v>0</v>
       </c>
       <c r="K55" s="0" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="L55" s="0" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2639,10 +2630,10 @@
         <v>12828076</v>
       </c>
       <c r="B56" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="C56" s="0" t="s">
         <v>144</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>145</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>14</v>
@@ -2651,7 +2642,7 @@
         <v>4</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G56" s="0" t="s">
         <v>114</v>
@@ -2666,13 +2657,13 @@
         <v>0</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="L56" s="0" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
         <v>18801087</v>
       </c>
@@ -2689,7 +2680,7 @@
         <v>5</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G57" s="0" t="s">
         <v>114</v>
@@ -2707,18 +2698,18 @@
         <v>118</v>
       </c>
       <c r="L57" s="0" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
         <v>22836123</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>14</v>
@@ -2727,7 +2718,7 @@
         <v>5</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G58" s="0" t="s">
         <v>114</v>
@@ -2745,10 +2736,10 @@
         <v>118</v>
       </c>
       <c r="L58" s="0" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
         <v>24040781</v>
       </c>
@@ -2765,7 +2756,7 @@
         <v>4</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G59" s="0" t="s">
         <v>114</v>
@@ -2774,16 +2765,16 @@
         <v>1</v>
       </c>
       <c r="I59" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="L59" s="0" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2794,7 +2785,7 @@
         <v>50</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D60" s="0" t="s">
         <v>14</v>
@@ -2803,7 +2794,7 @@
         <v>4</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G60" s="0" t="s">
         <v>114</v>
@@ -2821,7 +2812,7 @@
         <v>118</v>
       </c>
       <c r="L60" s="0" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2829,10 +2820,10 @@
         <v>24209900</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D61" s="0" t="s">
         <v>14</v>
@@ -2841,7 +2832,7 @@
         <v>5</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G61" s="0" t="s">
         <v>114</v>
@@ -2850,16 +2841,16 @@
         <v>0</v>
       </c>
       <c r="I61" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K61" s="0" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L61" s="0" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2867,10 +2858,10 @@
         <v>24209900</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>14</v>
@@ -2879,7 +2870,7 @@
         <v>5</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G62" s="0" t="s">
         <v>114</v>
@@ -2888,16 +2879,16 @@
         <v>0</v>
       </c>
       <c r="I62" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K62" s="0" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L62" s="0" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2905,10 +2896,10 @@
         <v>24209900</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>14</v>
@@ -2917,7 +2908,7 @@
         <v>5</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G63" s="0" t="s">
         <v>114</v>
@@ -2926,16 +2917,16 @@
         <v>0</v>
       </c>
       <c r="I63" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K63" s="0" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L63" s="0" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2943,10 +2934,10 @@
         <v>24209900</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>14</v>
@@ -2955,7 +2946,7 @@
         <v>5</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G64" s="0" t="s">
         <v>114</v>
@@ -2964,16 +2955,16 @@
         <v>0</v>
       </c>
       <c r="I64" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K64" s="0" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L64" s="0" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2981,10 +2972,10 @@
         <v>24209900</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D65" s="0" t="s">
         <v>14</v>
@@ -2993,7 +2984,7 @@
         <v>5</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G65" s="0" t="s">
         <v>114</v>
@@ -3002,16 +2993,16 @@
         <v>0</v>
       </c>
       <c r="I65" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K65" s="0" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L65" s="0" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3019,10 +3010,10 @@
         <v>24209900</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D66" s="0" t="s">
         <v>14</v>
@@ -3031,7 +3022,7 @@
         <v>5</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G66" s="0" t="s">
         <v>114</v>
@@ -3040,27 +3031,27 @@
         <v>0</v>
       </c>
       <c r="I66" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K66" s="0" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L66" s="0" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
         <v>24209900</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>14</v>
@@ -3069,7 +3060,7 @@
         <v>5</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G67" s="0" t="s">
         <v>114</v>
@@ -3078,27 +3069,27 @@
         <v>0</v>
       </c>
       <c r="I67" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K67" s="0" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L67" s="0" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
         <v>24840785</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D68" s="0" t="s">
         <v>14</v>
@@ -3107,7 +3098,7 @@
         <v>4</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G68" s="0" t="s">
         <v>114</v>
@@ -3125,7 +3116,7 @@
         <v>118</v>
       </c>
       <c r="L68" s="0" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3133,10 +3124,10 @@
         <v>24840785</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D69" s="0" t="s">
         <v>14</v>
@@ -3145,7 +3136,7 @@
         <v>4</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G69" s="0" t="s">
         <v>114</v>
@@ -3163,7 +3154,7 @@
         <v>118</v>
       </c>
       <c r="L69" s="0" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3171,10 +3162,10 @@
         <v>25071004</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D70" s="0" t="s">
         <v>14</v>
@@ -3183,7 +3174,7 @@
         <v>4</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G70" s="0" t="s">
         <v>114</v>
@@ -3192,27 +3183,27 @@
         <v>0</v>
       </c>
       <c r="I70" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K70" s="0" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L70" s="0" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
         <v>733189</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D71" s="0" t="s">
         <v>74</v>
@@ -3221,7 +3212,7 @@
         <v>5</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G71" s="0" t="s">
         <v>114</v>
@@ -3239,18 +3230,18 @@
         <v>118</v>
       </c>
       <c r="L71" s="0" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
         <v>733189</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D72" s="0" t="s">
         <v>74</v>
@@ -3259,7 +3250,7 @@
         <v>5</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G72" s="0" t="s">
         <v>114</v>
@@ -3277,10 +3268,10 @@
         <v>118</v>
       </c>
       <c r="L72" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="n">
         <v>3289726</v>
       </c>
@@ -3288,7 +3279,7 @@
         <v>82</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D73" s="0" t="s">
         <v>74</v>
@@ -3297,7 +3288,7 @@
         <v>5</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G73" s="0" t="s">
         <v>114</v>
@@ -3315,15 +3306,15 @@
         <v>118</v>
       </c>
       <c r="L73" s="0" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="n">
         <v>3323259</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C74" s="0" t="s">
         <v>100</v>
@@ -3335,7 +3326,7 @@
         <v>4</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G74" s="0" t="s">
         <v>114</v>
@@ -3353,18 +3344,18 @@
         <v>118</v>
       </c>
       <c r="L74" s="0" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
         <v>7479194</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D75" s="0" t="s">
         <v>74</v>
@@ -3373,7 +3364,7 @@
         <v>4</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G75" s="0" t="s">
         <v>114</v>
@@ -3391,18 +3382,18 @@
         <v>118</v>
       </c>
       <c r="L75" s="0" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
         <v>18422462</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D76" s="0" t="s">
         <v>74</v>
@@ -3411,7 +3402,7 @@
         <v>4</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G76" s="0" t="s">
         <v>114</v>
@@ -3429,18 +3420,18 @@
         <v>118</v>
       </c>
       <c r="L76" s="0" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="n">
         <v>19392810</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D77" s="0" t="s">
         <v>74</v>
@@ -3449,7 +3440,7 @@
         <v>5</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G77" s="0" t="s">
         <v>114</v>
@@ -3467,18 +3458,18 @@
         <v>118</v>
       </c>
       <c r="L77" s="0" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="n">
         <v>19531695</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D78" s="0" t="s">
         <v>74</v>
@@ -3487,7 +3478,7 @@
         <v>4</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G78" s="0" t="s">
         <v>114</v>
@@ -3505,18 +3496,18 @@
         <v>118</v>
       </c>
       <c r="L78" s="0" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="n">
         <v>19549709</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D79" s="0" t="s">
         <v>74</v>
@@ -3525,7 +3516,7 @@
         <v>4</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G79" s="0" t="s">
         <v>114</v>
@@ -3543,7 +3534,7 @@
         <v>118</v>
       </c>
       <c r="L79" s="0" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3551,10 +3542,10 @@
         <v>20927253</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D80" s="0" t="s">
         <v>74</v>
@@ -3563,7 +3554,7 @@
         <v>5</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G80" s="0" t="s">
         <v>114</v>
@@ -3572,7 +3563,7 @@
         <v>1</v>
       </c>
       <c r="I80" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" s="0" t="n">
         <v>0</v>
@@ -3581,7 +3572,7 @@
         <v>123</v>
       </c>
       <c r="L80" s="0" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3589,10 +3580,10 @@
         <v>24438483</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D81" s="0" t="s">
         <v>74</v>
@@ -3601,7 +3592,7 @@
         <v>4</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G81" s="0" t="s">
         <v>114</v>
@@ -3619,7 +3610,7 @@
         <v>123</v>
       </c>
       <c r="L81" s="0" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3627,10 +3618,10 @@
         <v>24582773</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>74</v>
@@ -3639,7 +3630,7 @@
         <v>4</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G82" s="0" t="s">
         <v>114</v>
@@ -3657,18 +3648,18 @@
         <v>123</v>
       </c>
       <c r="L82" s="0" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="n">
         <v>24733133</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D83" s="0" t="s">
         <v>74</v>
@@ -3677,7 +3668,7 @@
         <v>4</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G83" s="0" t="s">
         <v>114</v>
@@ -3695,18 +3686,18 @@
         <v>118</v>
       </c>
       <c r="L83" s="0" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="n">
         <v>24894748</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D84" s="0" t="s">
         <v>74</v>
@@ -3715,7 +3706,7 @@
         <v>4</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G84" s="0" t="s">
         <v>114</v>
@@ -3733,7 +3724,7 @@
         <v>118</v>
       </c>
       <c r="L84" s="0" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3741,10 +3732,10 @@
         <v>25907210</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D85" s="0" t="s">
         <v>74</v>
@@ -3753,7 +3744,7 @@
         <v>4</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G85" s="0" t="s">
         <v>114</v>
@@ -3762,7 +3753,7 @@
         <v>1</v>
       </c>
       <c r="I85" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" s="0" t="n">
         <v>0</v>
@@ -3771,7 +3762,7 @@
         <v>123</v>
       </c>
       <c r="L85" s="0" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3779,22 +3770,22 @@
         <v>256433</v>
       </c>
       <c r="B86" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E86" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G86" s="0" t="s">
         <v>239</v>
-      </c>
-      <c r="C86" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="D86" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E86" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="G86" s="0" t="s">
-        <v>242</v>
       </c>
       <c r="H86" s="0" t="n">
         <v>0</v>
@@ -3809,7 +3800,7 @@
         <v>115</v>
       </c>
       <c r="L86" s="0" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3817,7 +3808,7 @@
         <v>448423</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C87" s="0" t="s">
         <v>112</v>
@@ -3829,10 +3820,10 @@
         <v>1</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H87" s="0" t="n">
         <v>0</v>
@@ -3844,10 +3835,10 @@
         <v>1</v>
       </c>
       <c r="K87" s="0" t="s">
-        <v>118</v>
+        <v>243</v>
       </c>
       <c r="L87" s="0" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3855,7 +3846,7 @@
         <v>448423</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C88" s="0" t="s">
         <v>112</v>
@@ -3867,10 +3858,10 @@
         <v>1</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H88" s="0" t="n">
         <v>0</v>
@@ -3882,10 +3873,10 @@
         <v>1</v>
       </c>
       <c r="K88" s="0" t="s">
-        <v>118</v>
+        <v>243</v>
       </c>
       <c r="L88" s="0" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3893,7 +3884,7 @@
         <v>448423</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C89" s="0" t="s">
         <v>112</v>
@@ -3905,10 +3896,10 @@
         <v>1</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H89" s="0" t="n">
         <v>0</v>
@@ -3920,10 +3911,10 @@
         <v>1</v>
       </c>
       <c r="K89" s="0" t="s">
-        <v>118</v>
+        <v>243</v>
       </c>
       <c r="L89" s="0" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3931,22 +3922,22 @@
         <v>2553470</v>
       </c>
       <c r="B90" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E90" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F90" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C90" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="D90" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E90" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>251</v>
-      </c>
       <c r="G90" s="0" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H90" s="0" t="n">
         <v>0</v>
@@ -3961,7 +3952,7 @@
         <v>115</v>
       </c>
       <c r="L90" s="0" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3969,10 +3960,10 @@
         <v>2553470</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D91" s="0" t="s">
         <v>14</v>
@@ -3981,10 +3972,10 @@
         <v>1</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H91" s="0" t="n">
         <v>0</v>
@@ -3999,7 +3990,7 @@
         <v>115</v>
       </c>
       <c r="L91" s="0" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4007,10 +3998,10 @@
         <v>2553470</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D92" s="0" t="s">
         <v>14</v>
@@ -4019,10 +4010,10 @@
         <v>1</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H92" s="0" t="n">
         <v>0</v>
@@ -4037,7 +4028,7 @@
         <v>115</v>
       </c>
       <c r="L92" s="0" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4045,7 +4036,7 @@
         <v>3191389</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C93" s="0" t="s">
         <v>84</v>
@@ -4057,10 +4048,10 @@
         <v>0</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H93" s="0" t="n">
         <v>0</v>
@@ -4075,7 +4066,7 @@
         <v>115</v>
       </c>
       <c r="L93" s="0" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4086,7 +4077,7 @@
         <v>22</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D94" s="0" t="s">
         <v>14</v>
@@ -4095,10 +4086,10 @@
         <v>3</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H94" s="0" t="n">
         <v>1</v>
@@ -4113,7 +4104,7 @@
         <v>123</v>
       </c>
       <c r="L94" s="0" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4121,37 +4112,37 @@
         <v>3711722</v>
       </c>
       <c r="B95" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E95" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G95" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="H95" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" s="0" t="s">
         <v>260</v>
       </c>
-      <c r="C95" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="D95" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E95" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F95" s="2" t="s">
+      <c r="L95" s="0" t="s">
         <v>261</v>
-      </c>
-      <c r="G95" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="H95" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J95" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="L95" s="0" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4159,7 +4150,7 @@
         <v>9061777</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C96" s="0" t="s">
         <v>84</v>
@@ -4171,10 +4162,10 @@
         <v>3</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H96" s="0" t="n">
         <v>1</v>
@@ -4189,7 +4180,7 @@
         <v>123</v>
       </c>
       <c r="L96" s="0" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4197,7 +4188,7 @@
         <v>9061777</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C97" s="0" t="s">
         <v>84</v>
@@ -4209,10 +4200,10 @@
         <v>3</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H97" s="0" t="n">
         <v>1</v>
@@ -4227,7 +4218,7 @@
         <v>123</v>
       </c>
       <c r="L97" s="0" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4235,7 +4226,7 @@
         <v>9061777</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C98" s="0" t="s">
         <v>84</v>
@@ -4247,10 +4238,10 @@
         <v>3</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H98" s="0" t="n">
         <v>1</v>
@@ -4265,7 +4256,7 @@
         <v>123</v>
       </c>
       <c r="L98" s="0" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4273,7 +4264,7 @@
         <v>9061777</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C99" s="0" t="s">
         <v>84</v>
@@ -4285,10 +4276,10 @@
         <v>3</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H99" s="0" t="n">
         <v>1</v>
@@ -4303,7 +4294,7 @@
         <v>123</v>
       </c>
       <c r="L99" s="0" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4311,7 +4302,7 @@
         <v>10427794</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C100" s="0" t="s">
         <v>126</v>
@@ -4323,13 +4314,13 @@
         <v>1</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" s="0" t="n">
         <v>1</v>
@@ -4341,7 +4332,7 @@
         <v>115</v>
       </c>
       <c r="L100" s="0" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4349,22 +4340,22 @@
         <v>16906379</v>
       </c>
       <c r="B101" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E101" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F101" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C101" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="D101" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E101" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>275</v>
-      </c>
       <c r="G101" s="0" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H101" s="0" t="n">
         <v>0</v>
@@ -4379,7 +4370,7 @@
         <v>115</v>
       </c>
       <c r="L101" s="0" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4387,22 +4378,22 @@
         <v>20447294</v>
       </c>
       <c r="B102" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E102" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F102" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C102" s="0" t="s">
-        <v>278</v>
-      </c>
-      <c r="D102" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E102" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>279</v>
-      </c>
       <c r="G102" s="0" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H102" s="0" t="n">
         <v>0</v>
@@ -4417,7 +4408,7 @@
         <v>115</v>
       </c>
       <c r="L102" s="0" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4425,10 +4416,10 @@
         <v>23433219</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D103" s="0" t="s">
         <v>14</v>
@@ -4437,10 +4428,10 @@
         <v>3</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H103" s="0" t="n">
         <v>0</v>
@@ -4455,7 +4446,7 @@
         <v>115</v>
       </c>
       <c r="L103" s="0" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4463,10 +4454,10 @@
         <v>24665854</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D104" s="0" t="s">
         <v>14</v>
@@ -4475,25 +4466,25 @@
         <v>3</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H104" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I104" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K104" s="0" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="L104" s="0" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4501,37 +4492,37 @@
         <v>24733133</v>
       </c>
       <c r="B105" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="D105" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C105" s="0" t="s">
+      <c r="G105" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="H105" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K105" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="L105" s="0" t="s">
         <v>290</v>
-      </c>
-      <c r="D105" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E105" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="G105" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="H105" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K105" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="L105" s="0" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4539,10 +4530,10 @@
         <v>24840785</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D106" s="0" t="s">
         <v>14</v>
@@ -4551,25 +4542,25 @@
         <v>2</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H106" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I106" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K106" s="0" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="L106" s="0" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4577,10 +4568,10 @@
         <v>24927617</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D107" s="0" t="s">
         <v>14</v>
@@ -4589,10 +4580,10 @@
         <v>2</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H107" s="0" t="n">
         <v>0</v>
@@ -4607,7 +4598,7 @@
         <v>115</v>
       </c>
       <c r="L107" s="0" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4615,7 +4606,7 @@
         <v>1779253</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C108" s="0" t="s">
         <v>73</v>
@@ -4627,10 +4618,10 @@
         <v>1</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H108" s="0" t="n">
         <v>0</v>
@@ -4642,10 +4633,10 @@
         <v>1</v>
       </c>
       <c r="K108" s="0" t="s">
-        <v>118</v>
+        <v>243</v>
       </c>
       <c r="L108" s="0" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4653,7 +4644,7 @@
         <v>6106951</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C109" s="0" t="s">
         <v>84</v>
@@ -4665,10 +4656,10 @@
         <v>1</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H109" s="0" t="n">
         <v>1</v>
@@ -4683,18 +4674,18 @@
         <v>123</v>
       </c>
       <c r="L109" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="n">
         <v>8667442</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D110" s="0" t="s">
         <v>74</v>
@@ -4703,10 +4694,10 @@
         <v>1</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H110" s="0" t="n">
         <v>0</v>
@@ -4718,10 +4709,10 @@
         <v>1</v>
       </c>
       <c r="K110" s="0" t="s">
-        <v>118</v>
+        <v>243</v>
       </c>
       <c r="L110" s="0" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4741,10 +4732,10 @@
         <v>2</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H111" s="0" t="n">
         <v>1</v>
@@ -4759,7 +4750,7 @@
         <v>123</v>
       </c>
       <c r="L111" s="0" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4767,7 +4758,7 @@
         <v>9071336</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C112" s="0" t="s">
         <v>107</v>
@@ -4779,10 +4770,10 @@
         <v>3</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H112" s="0" t="n">
         <v>1</v>
@@ -4797,18 +4788,18 @@
         <v>123</v>
       </c>
       <c r="L112" s="0" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="n">
         <v>9428298</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D113" s="0" t="s">
         <v>74</v>
@@ -4817,10 +4808,10 @@
         <v>2</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H113" s="0" t="n">
         <v>0</v>
@@ -4832,21 +4823,21 @@
         <v>0</v>
       </c>
       <c r="K113" s="0" t="s">
-        <v>316</v>
+        <v>260</v>
       </c>
       <c r="L113" s="0" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="n">
         <v>9578276</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D114" s="0" t="s">
         <v>74</v>
@@ -4855,10 +4846,10 @@
         <v>3</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H114" s="0" t="n">
         <v>0</v>
@@ -4870,10 +4861,10 @@
         <v>1</v>
       </c>
       <c r="K114" s="0" t="s">
-        <v>118</v>
+        <v>243</v>
       </c>
       <c r="L114" s="0" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4881,10 +4872,10 @@
         <v>11745287</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D115" s="0" t="s">
         <v>74</v>
@@ -4893,10 +4884,10 @@
         <v>2</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H115" s="0" t="n">
         <v>1</v>
@@ -4911,7 +4902,7 @@
         <v>123</v>
       </c>
       <c r="L115" s="0" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4922,7 +4913,7 @@
         <v>88</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D116" s="0" t="s">
         <v>74</v>
@@ -4931,10 +4922,10 @@
         <v>3</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H116" s="0" t="n">
         <v>1</v>
@@ -4949,7 +4940,7 @@
         <v>123</v>
       </c>
       <c r="L116" s="0" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4957,7 +4948,7 @@
         <v>17223814</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C117" s="0" t="s">
         <v>27</v>
@@ -4969,10 +4960,10 @@
         <v>1</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H117" s="0" t="n">
         <v>1</v>
@@ -4987,7 +4978,7 @@
         <v>123</v>
       </c>
       <c r="L117" s="0" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4998,7 +4989,7 @@
         <v>94</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D118" s="0" t="s">
         <v>74</v>
@@ -5007,10 +4998,10 @@
         <v>3</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G118" s="0" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H118" s="0" t="n">
         <v>1</v>
@@ -5025,7 +5016,7 @@
         <v>123</v>
       </c>
       <c r="L118" s="0" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5033,10 +5024,10 @@
         <v>17356399</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D119" s="0" t="s">
         <v>74</v>
@@ -5045,10 +5036,10 @@
         <v>3</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H119" s="0" t="n">
         <v>1</v>
@@ -5063,15 +5054,15 @@
         <v>123</v>
       </c>
       <c r="L119" s="0" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="n">
         <v>18987260</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C120" s="0" t="s">
         <v>64</v>
@@ -5083,10 +5074,10 @@
         <v>2</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G120" s="0" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H120" s="0" t="n">
         <v>0</v>
@@ -5098,10 +5089,10 @@
         <v>0</v>
       </c>
       <c r="K120" s="0" t="s">
-        <v>316</v>
+        <v>260</v>
       </c>
       <c r="L120" s="0" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5109,10 +5100,10 @@
         <v>19139825</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D121" s="0" t="s">
         <v>74</v>
@@ -5121,10 +5112,10 @@
         <v>3</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H121" s="0" t="n">
         <v>1</v>
@@ -5139,7 +5130,7 @@
         <v>123</v>
       </c>
       <c r="L121" s="0" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5147,10 +5138,10 @@
         <v>19549709</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D122" s="0" t="s">
         <v>74</v>
@@ -5159,10 +5150,10 @@
         <v>3</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G122" s="0" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H122" s="0" t="n">
         <v>1</v>
@@ -5177,7 +5168,7 @@
         <v>123</v>
       </c>
       <c r="L122" s="0" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>

--- a/crowd_only/data/final_eval/analysis/crowd_testset_perfect_ner_errors.xlsx
+++ b/crowd_only/data/final_eval/analysis/crowd_testset_perfect_ner_errors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="340">
   <si>
     <t>pmid</t>
   </si>
@@ -32,10 +32,28 @@
     <t>num_votes</t>
   </si>
   <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t>etype</t>
+    <t>pubmed_link</t>
+  </si>
+  <si>
+    <t>cf_link</t>
+  </si>
+  <si>
+    <t>error_type</t>
+  </si>
+  <si>
+    <t>toby_gold_error</t>
+  </si>
+  <si>
+    <t>ben_gold_error</t>
+  </si>
+  <si>
+    <t>andrew_gold_error</t>
+  </si>
+  <si>
+    <t>final_gold_error</t>
+  </si>
+  <si>
+    <t>changed</t>
   </si>
   <si>
     <t>crowd_wrong</t>
@@ -44,13 +62,16 @@
     <t>task_limitation</t>
   </si>
   <si>
-    <t>gold_rel_error</t>
-  </si>
-  <si>
     <t>error_reason</t>
   </si>
   <si>
-    <t>discussion</t>
+    <t>ben_comments</t>
+  </si>
+  <si>
+    <t>andrew_comments</t>
+  </si>
+  <si>
+    <t>toby_comments</t>
   </si>
   <si>
     <t>MESH:D000614</t>
@@ -62,6 +83,9 @@
     <t>sent</t>
   </si>
   <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=448423</t>
+  </si>
+  <si>
     <t>https://crowdflower.com/jobs/767262/units/773932432</t>
   </si>
   <si>
@@ -80,52 +104,70 @@
     <t>MESH:D001919</t>
   </si>
   <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=1735570</t>
+  </si>
+  <si>
     <t>https://crowdflower.com/jobs/767262/units/773932578</t>
   </si>
   <si>
+    <t>lack_of_comprehension</t>
+  </si>
+  <si>
+    <t>drug caused opposite 'disease' in two groups described in the sentence</t>
+  </si>
+  <si>
+    <t>Trimethaphan caused different results depending on which rat type it was. Seems like the effect is not consistent.</t>
+  </si>
+  <si>
+    <t>MESH:D013806</t>
+  </si>
+  <si>
+    <t>MESH:D058186</t>
+  </si>
+  <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=2907577</t>
+  </si>
+  <si>
+    <t>https://crowdflower.com/jobs/767262/units/773932735</t>
+  </si>
+  <si>
+    <t>This is both a failure of the crowd's comprehension and a lack of context. The full abstract says that the drugs were being tested for their beneficial effects on renal failure.</t>
+  </si>
+  <si>
+    <t>MESH:D001464</t>
+  </si>
+  <si>
+    <t>MESH:D004342</t>
+  </si>
+  <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=3975902</t>
+  </si>
+  <si>
+    <t>https://crowdflower.com/jobs/767262/units/773932960</t>
+  </si>
+  <si>
+    <t>Disagreement with the gold arises from whether “hypersensitivity” is different from “hypersensitivity to sodium pentobarbital. Also gold used barium chloride, when ostensibly the chloride is just a way to deliver barium.</t>
+  </si>
+  <si>
+    <t>https://crowdflower.com/jobs/767262/units/773932961</t>
+  </si>
+  <si>
+    <t>MESH:D010665</t>
+  </si>
+  <si>
+    <t>MESH:D002543</t>
+  </si>
+  <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=3987172</t>
+  </si>
+  <si>
+    <t>https://crowdflower.com/jobs/767262/units/773932965</t>
+  </si>
+  <si>
     <t>missing_relation</t>
   </si>
   <si>
-    <t>Trimethaphan caused different results depending on which rat type it was. I think the gold went with tachycardia because the sham rats were not given the lesion?</t>
-  </si>
-  <si>
-    <t>MESH:D013806</t>
-  </si>
-  <si>
-    <t>MESH:D058186</t>
-  </si>
-  <si>
-    <t>https://crowdflower.com/jobs/767262/units/773932735</t>
-  </si>
-  <si>
-    <t>lack_of_comprehension</t>
-  </si>
-  <si>
-    <t>This is both a failure of the crowd's comprehension and a lack of context. The full abstract says that the drugs were being tested for their beneficial effects on renal failure.</t>
-  </si>
-  <si>
-    <t>MESH:D001464</t>
-  </si>
-  <si>
-    <t>MESH:D004342</t>
-  </si>
-  <si>
-    <t>https://crowdflower.com/jobs/767262/units/773932960</t>
-  </si>
-  <si>
-    <t>Disagreement with the gold arises from whether “hypersensitivity” is different from “hypersensitivity to sodium pentobarbital. Also gold used barium chloride, when ostensibly the chloride is just a way to deliver barium.</t>
-  </si>
-  <si>
-    <t>https://crowdflower.com/jobs/767262/units/773932961</t>
-  </si>
-  <si>
-    <t>MESH:D010665</t>
-  </si>
-  <si>
-    <t>MESH:D002543</t>
-  </si>
-  <si>
-    <t>https://crowdflower.com/jobs/767262/units/773932965</t>
+    <t>drug overdose (not drug as normally used) caused the disease</t>
   </si>
   <si>
     <t>Gold is missing relation.</t>
@@ -137,6 +179,9 @@
     <t>MESH:D009401</t>
   </si>
   <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=3990093</t>
+  </si>
+  <si>
     <t>https://crowdflower.com/jobs/767262/units/773932970</t>
   </si>
   <si>
@@ -152,6 +197,9 @@
     <t>MESH:D009846</t>
   </si>
   <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=10939760</t>
+  </si>
+  <si>
     <t>https://crowdflower.com/jobs/767262/units/773933604</t>
   </si>
   <si>
@@ -164,6 +212,9 @@
     <t>MESH:D062787</t>
   </si>
   <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=12828076</t>
+  </si>
+  <si>
     <t>https://crowdflower.com/jobs/767262/units/773933843</t>
   </si>
   <si>
@@ -179,10 +230,19 @@
     <t>MESH:D011507</t>
   </si>
   <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=18801087</t>
+  </si>
+  <si>
     <t>https://crowdflower.com/jobs/767262/units/773934294</t>
   </si>
   <si>
-    <t>Gold is missing relation. Text is clear that proteinuria developed after treatment with amiodarone.</t>
+    <t>though it’s a weak implication rather than a causal statement</t>
+  </si>
+  <si>
+    <t>implied but not explicit</t>
+  </si>
+  <si>
+    <t>Text implies that amiodarone caused proteinuria but the relation is not explicit.</t>
   </si>
   <si>
     <t>MESH:D011239</t>
@@ -191,15 +251,24 @@
     <t>MESH:D007674</t>
   </si>
   <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=22836123</t>
+  </si>
+  <si>
     <t>https://crowdflower.com/jobs/767262/units/773931702</t>
   </si>
   <si>
+    <t>makes me think we need to handle titles differently…</t>
+  </si>
+  <si>
     <t>Gold is missing relation. Both tacrolimus and prednisolone induce SRC.</t>
   </si>
   <si>
     <t>MESH:D020123</t>
   </si>
   <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=24040781</t>
+  </si>
+  <si>
     <t>https://crowdflower.com/jobs/767262/units/773931741</t>
   </si>
   <si>
@@ -212,6 +281,9 @@
     <t>MESH:D001008</t>
   </si>
   <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=24190587</t>
+  </si>
+  <si>
     <t>https://crowdflower.com/jobs/767262/units/773931810</t>
   </si>
   <si>
@@ -224,6 +296,9 @@
     <t>MESH:D001927</t>
   </si>
   <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=24209900</t>
+  </si>
+  <si>
     <t>https://crowdflower.com/jobs/767262/units/773931814</t>
   </si>
   <si>
@@ -257,9 +332,15 @@
     <t>MESH:D009202</t>
   </si>
   <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=24840785</t>
+  </si>
+  <si>
     <t>https://crowdflower.com/jobs/767262/units/773932094</t>
   </si>
   <si>
+    <t>never says what the effects are</t>
+  </si>
+  <si>
     <t>Text is explicit about this relation. Seems like gold used cardiotoxicity as the more specific term instead of myocardial injury? Not MeSH filterable.</t>
   </si>
   <si>
@@ -272,6 +353,9 @@
     <t>MESH:D000740</t>
   </si>
   <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=25071004</t>
+  </si>
+  <si>
     <t>https://crowdflower.com/jobs/767262/units/773932216</t>
   </si>
   <si>
@@ -287,6 +371,9 @@
     <t>abs</t>
   </si>
   <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=733189</t>
+  </si>
+  <si>
     <t>https://crowdflower.com/jobs/767273/units/773936652</t>
   </si>
   <si>
@@ -299,7 +386,10 @@
     <t>https://crowdflower.com/jobs/767273/units/773936654</t>
   </si>
   <si>
-    <t>Gold is missing relation. Methylprednisolone is being injected in combination with penicillin, and therefore the effect is synergistic.</t>
+    <t>but this is super weak and only makes sense in combination with the other drug mentioned</t>
+  </si>
+  <si>
+    <t>Relation is very weak, and it seems like the methylprednisolone acetate is more responsible for the observed symptoms.</t>
   </si>
   <si>
     <t>MESH:D005047</t>
@@ -308,6 +398,9 @@
     <t>MESH:D006970</t>
   </si>
   <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=3289726</t>
+  </si>
+  <si>
     <t>https://crowdflower.com/jobs/767273/units/773936980</t>
   </si>
   <si>
@@ -320,10 +413,16 @@
     <t>MESH:D009325</t>
   </si>
   <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=3323259</t>
+  </si>
+  <si>
     <t>https://crowdflower.com/jobs/767273/units/773937063</t>
   </si>
   <si>
-    <t>Gold is completely wrong for this paper. The text states that the dihydropyridine class of calcium channel blockers have a bunch of adverse effects, not all calcium channel blockers, which is what the gold standard claims. Also, since nifedipine is given as an example of a dihydropyridine channel blocker, it goes to reason that it likely causes the side effects mentioned.</t>
+    <t>there is an indirect, implicit connection via its parent "dihydropyridine calcium channel blockers" but not enough to attach a specific cause</t>
+  </si>
+  <si>
+    <t>While nifedipine is mentioned as one of the first dihydropyridine calcium channel blockers, the text does not explicitly say that nifedipine causes nausea.</t>
   </si>
   <si>
     <t>MESH:D014295</t>
@@ -332,10 +431,16 @@
     <t>MESH:D004892</t>
   </si>
   <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=7479194</t>
+  </si>
+  <si>
     <t>https://crowdflower.com/jobs/767273/units/773937345</t>
   </si>
   <si>
-    <t>Gold has relation with Stevens-Johnson syndrome, but text says patients had both erythema multiforma and Stevens-Johnson syndrome.</t>
+    <t>if anything, the abstract implies the other drug beign compared to</t>
+  </si>
+  <si>
+    <t>Not clear if trimethoprim can cause erythema multiforme alone.</t>
   </si>
   <si>
     <t>MESH:D015215</t>
@@ -344,10 +449,16 @@
     <t>MESH:D005076</t>
   </si>
   <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=18422462</t>
+  </si>
+  <si>
     <t>https://crowdflower.com/jobs/767273/units/773938291</t>
   </si>
   <si>
-    <t>Gold is missing relation. Gold states that NVP causes both rash and peripheral neuropathy, and in the first part, the text does not state which of the different treatments corresponded to which symptom.</t>
+    <t>potential, indirect association but can't be stated without that context</t>
+  </si>
+  <si>
+    <t>Not clear which of the three drugs are causing rash.</t>
   </si>
   <si>
     <t>MESH:D008691</t>
@@ -356,10 +467,16 @@
     <t>MESH:D001037</t>
   </si>
   <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=19392810</t>
+  </si>
+  <si>
     <t>https://crowdflower.com/jobs/767273/units/773938423</t>
   </si>
   <si>
-    <t>Gold in general is inconsistent about how they treat symptoms observed. In some papers they annotate these as relations, while in others they ignore them. I would again say that the relation should be included, since this is what was observed.</t>
+    <t>weird formatting</t>
+  </si>
+  <si>
+    <t>Gold in general is inconsistent about how they treat symptoms observed. In some papers they annotate these as relations, while in others they ignore them. Seems like the link is too tenuous to be real.</t>
   </si>
   <si>
     <t>MESH:D017374</t>
@@ -368,6 +485,9 @@
     <t>MESH:D010259</t>
   </si>
   <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=19531695</t>
+  </si>
+  <si>
     <t>https://crowdflower.com/jobs/767273/units/773938461</t>
   </si>
   <si>
@@ -380,6 +500,9 @@
     <t>MESH:D011014</t>
   </si>
   <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=19549709</t>
+  </si>
+  <si>
     <t>https://crowdflower.com/jobs/767273/units/773938505</t>
   </si>
   <si>
@@ -392,6 +515,9 @@
     <t>MESH:D059352</t>
   </si>
   <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=20927253</t>
+  </si>
+  <si>
     <t>https://crowdflower.com/jobs/767273/units/773938609</t>
   </si>
   <si>
@@ -404,6 +530,9 @@
     <t>MESH:D001145</t>
   </si>
   <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=24438483</t>
+  </si>
+  <si>
     <t>https://crowdflower.com/jobs/767273/units/773936124</t>
   </si>
   <si>
@@ -416,6 +545,9 @@
     <t>MESH:D000987</t>
   </si>
   <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=24582773</t>
+  </si>
+  <si>
     <t>https://crowdflower.com/jobs/767273/units/773936161</t>
   </si>
   <si>
@@ -428,10 +560,13 @@
     <t>MESH:D007676</t>
   </si>
   <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=24733133</t>
+  </si>
+  <si>
     <t>https://crowdflower.com/jobs/767273/units/773936286</t>
   </si>
   <si>
-    <t>Seems like gold is missing this relation, although I admit that the causes of the patient's end stage renal disease and hearing loss are probably a combination of multiple diseases and drugs, and therefore difficult to separate out conclusively.</t>
+    <t>The causes of the patient's end stage renal disease and hearing loss are probably a combination of multiple diseases and drugs, and therefore difficult to separate out conclusively to any one drug.</t>
   </si>
   <si>
     <t>MESH:D008790</t>
@@ -440,10 +575,16 @@
     <t>MESH:D003221</t>
   </si>
   <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=24894748</t>
+  </si>
+  <si>
     <t>https://crowdflower.com/jobs/767273/units/773936333</t>
   </si>
   <si>
-    <t>Text explicitly states that confusion arose, but the gold only contains the higher relation with bradycardia.</t>
+    <t>But weak, and context -dependent, also the connection to confusion is really through decreased heart rate which could lead to all kinds of things</t>
+  </si>
+  <si>
+    <t>Text only weakly makes a link between metoprolol and confusion.</t>
   </si>
   <si>
     <t>MESH:D003976</t>
@@ -452,6 +593,9 @@
     <t>MESH:D007680</t>
   </si>
   <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=25907210</t>
+  </si>
+  <si>
     <t>https://crowdflower.com/jobs/767273/units/773936462</t>
   </si>
   <si>
@@ -464,6 +608,9 @@
     <t>MESH:D053099</t>
   </si>
   <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=256433</t>
+  </si>
+  <si>
     <t>https://crowdflower.com/jobs/767262/units/773932431</t>
   </si>
   <si>
@@ -482,6 +629,9 @@
     <t>false_relation</t>
   </si>
   <si>
+    <t>if anything it’s a "treats" relationship</t>
+  </si>
+  <si>
     <t>Text never says that EACA causes SAH. If anything, it only says that EACA is good for treating rebleeding for patients with SAH.</t>
   </si>
   <si>
@@ -491,12 +641,18 @@
     <t>https://crowdflower.com/jobs/767262/units/773932444</t>
   </si>
   <si>
+    <t>these I think are examples where sentence scoping hurts</t>
+  </si>
+  <si>
     <t>MESH:D008094</t>
   </si>
   <si>
     <t>MESH:D013226</t>
   </si>
   <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=2553470</t>
+  </si>
+  <si>
     <t>https://crowdflower.com/jobs/767262/units/773932658</t>
   </si>
   <si>
@@ -515,6 +671,9 @@
     <t>MESH:D012640</t>
   </si>
   <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=3191389</t>
+  </si>
+  <si>
     <t>https://crowdflower.com/jobs/767262/units/773932793</t>
   </si>
   <si>
@@ -533,6 +692,9 @@
     <t>MESH:D003035</t>
   </si>
   <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=3711722</t>
+  </si>
+  <si>
     <t>https://crowdflower.com/jobs/767262/units/773932317</t>
   </si>
   <si>
@@ -545,6 +707,9 @@
     <t>MESH:D016291</t>
   </si>
   <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=9061777</t>
+  </si>
+  <si>
     <t>https://crowdflower.com/jobs/767262/units/773933383</t>
   </si>
   <si>
@@ -563,6 +728,9 @@
     <t>MESH:C065757</t>
   </si>
   <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=10427794</t>
+  </si>
+  <si>
     <t>https://crowdflower.com/jobs/767262/units/773933551</t>
   </si>
   <si>
@@ -575,6 +743,9 @@
     <t>MESH:D010488</t>
   </si>
   <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=16906379</t>
+  </si>
+  <si>
     <t>https://crowdflower.com/jobs/767262/units/773934074</t>
   </si>
   <si>
@@ -587,6 +758,9 @@
     <t>MESH:D006930</t>
   </si>
   <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=20447294</t>
+  </si>
+  <si>
     <t>https://crowdflower.com/jobs/767262/units/773934549</t>
   </si>
   <si>
@@ -599,6 +773,9 @@
     <t>MESH:D001714</t>
   </si>
   <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=23433219</t>
+  </si>
+  <si>
     <t>https://crowdflower.com/jobs/767262/units/773931709</t>
   </si>
   <si>
@@ -611,6 +788,9 @@
     <t>MESH:D003244</t>
   </si>
   <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=24665854</t>
+  </si>
+  <si>
     <t>https://crowdflower.com/jobs/767262/units/773931964</t>
   </si>
   <si>
@@ -626,6 +806,9 @@
     <t>https://crowdflower.com/jobs/767262/units/773932030</t>
   </si>
   <si>
+    <t>possible association - but "secondary to" not = "caused by"</t>
+  </si>
+  <si>
     <t>Thrombocytopenia causes pulmonary embolism, strictly speaking, and therefore this relation should be considered a gold standard error. Crowd actually came to a consensus that the relation was indirect, since the pattern followed the answer pattern.</t>
   </si>
   <si>
@@ -644,6 +827,9 @@
     <t>MESH:D012206</t>
   </si>
   <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=24927617</t>
+  </si>
+  <si>
     <t>https://crowdflower.com/jobs/767262/units/773932161</t>
   </si>
   <si>
@@ -656,15 +842,24 @@
     <t>MESH:D010146</t>
   </si>
   <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=1779253</t>
+  </si>
+  <si>
     <t>https://crowdflower.com/jobs/767273/units/773936781</t>
   </si>
   <si>
+    <t>the pain referred to there was not from the drug but from the disease it was trying to help treat</t>
+  </si>
+  <si>
     <t>Text states that capsaicin was used as a treatment for chronic post herpetic neuralgia (a type of nerve pain due to shingles). Mentions of “pain” are about the way it was measured or as a factor for other things; text never states that capsaicin causes pain directly, other than the statement about capsaicin induced burning sensations. If we are treating burning sensations as pain, then the crowd got things right.</t>
   </si>
   <si>
     <t>MESH:D010433</t>
   </si>
   <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=6106951</t>
+  </si>
+  <si>
     <t>https://crowdflower.com/jobs/767273/units/773937213</t>
   </si>
   <si>
@@ -677,9 +872,15 @@
     <t>MESH:D010437</t>
   </si>
   <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=8667442</t>
+  </si>
+  <si>
     <t>https://crowdflower.com/jobs/767273/units/773937478</t>
   </si>
   <si>
+    <t>treats</t>
+  </si>
+  <si>
     <t>Text states that the current three drugs used as ulcer therapies have decreased the frequency of milk-alkali syndrome. It does not state that sucralfate causes peptic ulcer disease, and therefore it seems the gold standard is wrong here.</t>
   </si>
   <si>
@@ -689,6 +890,9 @@
     <t>MESH:D009503</t>
   </si>
   <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=9071336</t>
+  </si>
+  <si>
     <t>https://crowdflower.com/jobs/767273/units/773937546</t>
   </si>
   <si>
@@ -704,6 +908,9 @@
     <t>MESH:D000420</t>
   </si>
   <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=9428298</t>
+  </si>
+  <si>
     <t>https://crowdflower.com/jobs/767273/units/773937562</t>
   </si>
   <si>
@@ -716,9 +923,15 @@
     <t>MESH:D015746</t>
   </si>
   <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=9578276</t>
+  </si>
+  <si>
     <t>https://crowdflower.com/jobs/767273/units/773936537</t>
   </si>
   <si>
+    <t>measured (0) events of abdominal pain with this drug</t>
+  </si>
+  <si>
     <t>Text states that zero patients experienced abdominal pain or vomiting, but both of these diseases are linked to carbetocin in the gold standard. All other diseases had at least one affected patient. Therefore based on the text, it seems like this relation is a gold standard error.</t>
   </si>
   <si>
@@ -728,6 +941,9 @@
     <t>MESH:D003248</t>
   </si>
   <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=11745287</t>
+  </si>
+  <si>
     <t>https://crowdflower.com/jobs/767273/units/773937714</t>
   </si>
   <si>
@@ -737,6 +953,9 @@
     <t>MESH:D006463</t>
   </si>
   <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=12119460</t>
+  </si>
+  <si>
     <t>https://crowdflower.com/jobs/767273/units/773937758</t>
   </si>
   <si>
@@ -749,6 +968,9 @@
     <t>MESH:D054537</t>
   </si>
   <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=17223814</t>
+  </si>
+  <si>
     <t>https://crowdflower.com/jobs/767273/units/773938128</t>
   </si>
   <si>
@@ -761,6 +983,9 @@
     <t>MESH:D006212</t>
   </si>
   <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=17356399</t>
+  </si>
+  <si>
     <t>https://crowdflower.com/jobs/767273/units/773938201</t>
   </si>
   <si>
@@ -779,6 +1004,9 @@
     <t>MESH:D004317</t>
   </si>
   <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=18987260</t>
+  </si>
+  <si>
     <t>https://crowdflower.com/jobs/767273/units/773938336</t>
   </si>
   <si>
@@ -789,6 +1017,9 @@
   </si>
   <si>
     <t>MESH:D008231</t>
+  </si>
+  <si>
+    <t>http://ncbi.nlm.nih.gov/pubmed/?term=19139825</t>
   </si>
   <si>
     <t>https://crowdflower.com/jobs/767273/units/773938372</t>
@@ -932,24 +1163,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L78"/>
+  <dimension ref="A1:S78"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:AC87"/>
+      <selection pane="topLeft" activeCell="S32" activeCellId="0" sqref="S32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.4591836734694"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="14.9030612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.76530612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.8826530612245"/>
-    <col collapsed="false" hidden="false" max="10" min="6" style="0" width="8.72959183673469"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.8877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="8" min="4" style="0" width="8.6734693877551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.9030612244898"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.1071428571429"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.7551020408163"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.6938775510204"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.6734693877551"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.1122448979592"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.8061224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.6734693877551"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -971,20 +1206,41 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -992,37 +1248,46 @@
         <v>448423</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1030,37 +1295,55 @@
         <v>1735570</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>4</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1068,37 +1351,46 @@
         <v>2907577</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>4</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>1</v>
+        <v>36</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>28</v>
+      <c r="L4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1106,37 +1398,46 @@
         <v>3975902</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>32</v>
+      <c r="S5" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1144,37 +1445,46 @@
         <v>3975902</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>4</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>1</v>
+        <v>41</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>32</v>
+      <c r="L6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1182,37 +1492,55 @@
         <v>3987172</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>5</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>37</v>
+        <v>0</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1220,37 +1548,46 @@
         <v>3990093</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>4</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>41</v>
+      <c r="L8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="S8" s="0" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1258,37 +1595,46 @@
         <v>3990093</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>4</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" s="0" t="s">
-        <v>41</v>
+      <c r="L9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1296,37 +1642,52 @@
         <v>10939760</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>5</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K10" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" s="0" t="s">
-        <v>46</v>
+      <c r="K10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="S10" s="0" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1334,37 +1695,46 @@
         <v>12828076</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>4</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>1</v>
+        <v>65</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="L11" s="0" t="s">
-        <v>50</v>
+      <c r="L11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="S11" s="0" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1372,37 +1742,46 @@
         <v>12828076</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>4</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>1</v>
+        <v>65</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" s="0" t="s">
-        <v>50</v>
+      <c r="L12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="S12" s="0" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1410,37 +1789,58 @@
         <v>18801087</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>5</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>0</v>
+        <v>71</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" s="0" t="s">
-        <v>55</v>
+        <v>0</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="R13" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="S13" s="0" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1448,37 +1848,55 @@
         <v>22836123</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>5</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>0</v>
+        <v>78</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K14" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" s="0" t="s">
-        <v>59</v>
+      <c r="K14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="R14" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="S14" s="0" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1486,37 +1904,46 @@
         <v>24040781</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>4</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>1</v>
+        <v>83</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="L15" s="0" t="s">
-        <v>62</v>
+      <c r="L15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="S15" s="0" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1524,37 +1951,55 @@
         <v>24190587</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>4</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K16" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" s="0" t="s">
-        <v>66</v>
+      <c r="K16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q16" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="S16" s="0" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1562,37 +2007,46 @@
         <v>24209900</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>5</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="0" t="n">
-        <v>0</v>
+        <v>93</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="L17" s="0" t="s">
-        <v>71</v>
+        <v>0</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="S17" s="0" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1600,37 +2054,46 @@
         <v>24209900</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>5</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="0" t="n">
-        <v>0</v>
+        <v>93</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="L18" s="0" t="s">
-        <v>71</v>
+        <v>0</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="S18" s="0" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1638,37 +2101,46 @@
         <v>24209900</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>5</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="0" t="n">
-        <v>0</v>
+        <v>93</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="L19" s="0" t="s">
-        <v>71</v>
+        <v>0</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="S19" s="0" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1676,37 +2148,46 @@
         <v>24209900</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>5</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="0" t="n">
-        <v>0</v>
+        <v>93</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="L20" s="0" t="s">
-        <v>71</v>
+        <v>0</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="S20" s="0" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1714,37 +2195,46 @@
         <v>24209900</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>5</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="0" t="n">
-        <v>0</v>
+        <v>93</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="L21" s="0" t="s">
-        <v>71</v>
+        <v>0</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="S21" s="0" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1752,37 +2242,46 @@
         <v>24209900</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>5</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="0" t="n">
-        <v>0</v>
+        <v>93</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="L22" s="0" t="s">
-        <v>71</v>
+        <v>0</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="S22" s="0" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1790,37 +2289,46 @@
         <v>24209900</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>5</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="0" t="n">
-        <v>0</v>
+        <v>93</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="L23" s="0" t="s">
-        <v>71</v>
+        <v>0</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="S23" s="0" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1828,37 +2336,55 @@
         <v>24840785</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>4</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="0" t="n">
-        <v>0</v>
+        <v>105</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K24" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="0" t="s">
-        <v>81</v>
+      <c r="K24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q24" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="S24" s="0" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1866,37 +2392,52 @@
         <v>24840785</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>4</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="0" t="n">
-        <v>0</v>
+        <v>105</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K25" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" s="0" t="s">
-        <v>81</v>
+      <c r="K25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="S25" s="0" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1904,37 +2445,46 @@
         <v>25071004</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>4</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="0" t="n">
-        <v>0</v>
+        <v>112</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="L26" s="0" t="s">
-        <v>86</v>
+        <v>0</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="S26" s="0" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1942,37 +2492,52 @@
         <v>733189</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>5</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G27" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" s="0" t="n">
-        <v>0</v>
+        <v>118</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K27" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="L27" s="0" t="s">
-        <v>37</v>
+      <c r="K27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="S27" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1980,37 +2545,55 @@
         <v>733189</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>5</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" s="0" t="n">
-        <v>0</v>
+        <v>118</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K28" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="L28" s="0" t="s">
-        <v>94</v>
+        <v>0</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q28" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="S28" s="0" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2018,37 +2601,52 @@
         <v>3289726</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>5</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="0" t="n">
-        <v>0</v>
+        <v>127</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K29" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="L29" s="0" t="s">
-        <v>98</v>
+      <c r="K29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="S29" s="0" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2056,37 +2654,55 @@
         <v>3323259</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>4</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" s="0" t="n">
-        <v>0</v>
+        <v>132</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K30" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="L30" s="0" t="s">
-        <v>102</v>
+        <v>0</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q30" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="S30" s="0" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2094,37 +2710,55 @@
         <v>7479194</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>4</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G31" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" s="0" t="n">
-        <v>0</v>
+        <v>138</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K31" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="L31" s="0" t="s">
-        <v>106</v>
+        <v>0</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q31" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="S31" s="0" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2132,37 +2766,55 @@
         <v>18422462</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>4</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G32" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" s="0" t="n">
-        <v>0</v>
+        <v>144</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K32" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="L32" s="0" t="s">
-        <v>110</v>
+        <v>0</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q32" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="S32" s="0" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2170,37 +2822,58 @@
         <v>19392810</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>5</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G33" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33" s="0" t="n">
-        <v>0</v>
+        <v>150</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K33" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="L33" s="0" t="s">
-        <v>114</v>
+        <v>0</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q33" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="R33" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="S33" s="0" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2208,37 +2881,55 @@
         <v>19531695</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>4</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G34" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H34" s="0" t="n">
-        <v>0</v>
+        <v>156</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K34" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="L34" s="0" t="s">
-        <v>118</v>
+      <c r="K34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q34" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="S34" s="0" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2246,37 +2937,55 @@
         <v>19549709</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>4</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H35" s="0" t="n">
-        <v>0</v>
+        <v>161</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K35" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="L35" s="0" t="s">
-        <v>122</v>
+      <c r="K35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q35" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="S35" s="0" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2284,37 +2993,46 @@
         <v>20927253</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E36" s="0" t="n">
         <v>5</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G36" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H36" s="0" t="n">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="I36" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="L36" s="0" t="s">
-        <v>126</v>
+      <c r="L36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="S36" s="0" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2322,37 +3040,46 @@
         <v>24438483</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>127</v>
+        <v>169</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>128</v>
+        <v>170</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E37" s="0" t="n">
         <v>4</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G37" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" s="0" t="n">
-        <v>1</v>
+        <v>171</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="I37" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="L37" s="0" t="s">
-        <v>130</v>
+      <c r="L37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="S37" s="0" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2360,37 +3087,46 @@
         <v>24582773</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>4</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G38" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H38" s="0" t="n">
-        <v>1</v>
+        <v>176</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="I38" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="L38" s="0" t="s">
-        <v>134</v>
+      <c r="L38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="S38" s="0" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2398,37 +3134,52 @@
         <v>24733133</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>135</v>
+        <v>179</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>136</v>
+        <v>180</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E39" s="0" t="n">
         <v>4</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G39" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H39" s="0" t="n">
-        <v>0</v>
+        <v>181</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K39" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="L39" s="0" t="s">
-        <v>138</v>
+        <v>0</v>
+      </c>
+      <c r="K39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="S39" s="0" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2436,37 +3187,55 @@
         <v>24894748</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>140</v>
+        <v>185</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E40" s="0" t="n">
         <v>4</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G40" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H40" s="0" t="n">
-        <v>0</v>
+        <v>186</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K40" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="L40" s="0" t="s">
-        <v>142</v>
+        <v>0</v>
+      </c>
+      <c r="K40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q40" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="S40" s="0" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2474,37 +3243,46 @@
         <v>25907210</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>143</v>
+        <v>190</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E41" s="0" t="n">
         <v>4</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="G41" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H41" s="0" t="n">
-        <v>1</v>
+        <v>192</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="I41" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="L41" s="0" t="s">
-        <v>146</v>
+      <c r="L41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="S41" s="0" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2512,37 +3290,46 @@
         <v>256433</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>147</v>
+        <v>195</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E42" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G42" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="H42" s="0" t="n">
-        <v>0</v>
+        <v>197</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>199</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="L42" s="0" t="s">
-        <v>151</v>
+        <v>0</v>
+      </c>
+      <c r="L42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P42" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S42" s="0" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2550,37 +3337,55 @@
         <v>448423</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>152</v>
+        <v>201</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E43" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G43" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="H43" s="0" t="n">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>199</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K43" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="L43" s="0" t="s">
-        <v>155</v>
+      <c r="K43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q43" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="S43" s="0" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2588,37 +3393,52 @@
         <v>448423</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>152</v>
+        <v>201</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E44" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G44" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="H44" s="0" t="n">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>199</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K44" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="L44" s="0" t="s">
-        <v>155</v>
+      <c r="K44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="S44" s="0" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2626,37 +3446,55 @@
         <v>448423</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>152</v>
+        <v>201</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E45" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G45" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="H45" s="0" t="n">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>199</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K45" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="L45" s="0" t="s">
-        <v>155</v>
+      <c r="K45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="R45" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="S45" s="0" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2664,37 +3502,46 @@
         <v>2553470</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>158</v>
+        <v>209</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E46" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G46" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="H46" s="0" t="n">
-        <v>0</v>
+        <v>211</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>199</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="L46" s="0" t="s">
-        <v>161</v>
+        <v>0</v>
+      </c>
+      <c r="L46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P46" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S46" s="0" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2702,37 +3549,46 @@
         <v>2553470</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>158</v>
+        <v>209</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E47" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="G47" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="H47" s="0" t="n">
-        <v>0</v>
+        <v>211</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>199</v>
       </c>
       <c r="I47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="L47" s="0" t="s">
-        <v>161</v>
+        <v>0</v>
+      </c>
+      <c r="L47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P47" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S47" s="0" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2740,37 +3596,46 @@
         <v>2553470</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>158</v>
+        <v>209</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E48" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G48" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="H48" s="0" t="n">
-        <v>0</v>
+        <v>211</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>199</v>
       </c>
       <c r="I48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="L48" s="0" t="s">
-        <v>161</v>
+        <v>0</v>
+      </c>
+      <c r="L48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P48" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S48" s="0" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2778,37 +3643,46 @@
         <v>3191389</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>164</v>
+        <v>216</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>165</v>
+        <v>217</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E49" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G49" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="H49" s="0" t="n">
-        <v>0</v>
+        <v>218</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>199</v>
       </c>
       <c r="I49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="L49" s="0" t="s">
-        <v>167</v>
+        <v>0</v>
+      </c>
+      <c r="L49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P49" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S49" s="0" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2816,37 +3690,46 @@
         <v>3191389</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E50" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="G50" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="H50" s="0" t="n">
-        <v>1</v>
+        <v>218</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>199</v>
       </c>
       <c r="I50" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="L50" s="0" t="s">
-        <v>170</v>
+      <c r="L50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="S50" s="0" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2854,37 +3737,46 @@
         <v>3711722</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E51" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G51" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="H51" s="0" t="n">
-        <v>0</v>
+        <v>225</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>199</v>
       </c>
       <c r="I51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="L51" s="0" t="s">
-        <v>174</v>
+        <v>0</v>
+      </c>
+      <c r="L51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P51" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="S51" s="0" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2892,37 +3784,46 @@
         <v>9061777</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>175</v>
+        <v>229</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>165</v>
+        <v>217</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E52" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="G52" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="H52" s="0" t="n">
-        <v>1</v>
+        <v>230</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>199</v>
       </c>
       <c r="I52" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="L52" s="0" t="s">
-        <v>177</v>
+      <c r="L52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="S52" s="0" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2930,37 +3831,46 @@
         <v>9061777</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>175</v>
+        <v>229</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>165</v>
+        <v>217</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E53" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G53" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="H53" s="0" t="n">
-        <v>1</v>
+        <v>230</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>199</v>
       </c>
       <c r="I53" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="L53" s="0" t="s">
-        <v>177</v>
+      <c r="L53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="S53" s="0" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2968,37 +3878,46 @@
         <v>9061777</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>175</v>
+        <v>229</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>165</v>
+        <v>217</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E54" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G54" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="H54" s="0" t="n">
-        <v>1</v>
+        <v>230</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="H54" s="0" t="s">
+        <v>199</v>
       </c>
       <c r="I54" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J54" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="L54" s="0" t="s">
-        <v>177</v>
+      <c r="L54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="S54" s="0" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3006,37 +3925,46 @@
         <v>9061777</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>175</v>
+        <v>229</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>165</v>
+        <v>217</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E55" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="G55" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="H55" s="0" t="n">
-        <v>1</v>
+        <v>230</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="H55" s="0" t="s">
+        <v>199</v>
       </c>
       <c r="I55" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J55" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="L55" s="0" t="s">
-        <v>177</v>
+      <c r="L55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="S55" s="0" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3044,37 +3972,46 @@
         <v>10427794</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>181</v>
+        <v>236</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E56" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G56" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="H56" s="0" t="n">
-        <v>0</v>
+        <v>237</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="H56" s="0" t="s">
+        <v>199</v>
       </c>
       <c r="I56" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="L56" s="0" t="s">
-        <v>183</v>
+        <v>0</v>
+      </c>
+      <c r="L56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P56" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S56" s="0" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3082,37 +4019,46 @@
         <v>16906379</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>184</v>
+        <v>240</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>185</v>
+        <v>241</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E57" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="G57" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="H57" s="0" t="n">
-        <v>0</v>
+        <v>242</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="H57" s="0" t="s">
+        <v>199</v>
       </c>
       <c r="I57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="L57" s="0" t="s">
-        <v>187</v>
+        <v>0</v>
+      </c>
+      <c r="L57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P57" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S57" s="0" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3120,37 +4066,46 @@
         <v>20447294</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>188</v>
+        <v>245</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>189</v>
+        <v>246</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E58" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G58" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="H58" s="0" t="n">
-        <v>0</v>
+        <v>247</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="H58" s="0" t="s">
+        <v>199</v>
       </c>
       <c r="I58" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J58" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="L58" s="0" t="s">
-        <v>191</v>
+        <v>0</v>
+      </c>
+      <c r="L58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P58" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S58" s="0" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3158,37 +4113,46 @@
         <v>23433219</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>192</v>
+        <v>250</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>193</v>
+        <v>251</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E59" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="G59" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="H59" s="0" t="n">
-        <v>0</v>
+        <v>252</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="H59" s="0" t="s">
+        <v>199</v>
       </c>
       <c r="I59" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J59" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="L59" s="0" t="s">
-        <v>195</v>
+        <v>0</v>
+      </c>
+      <c r="L59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P59" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S59" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3196,37 +4160,46 @@
         <v>24665854</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>196</v>
+        <v>255</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>197</v>
+        <v>256</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E60" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="G60" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="H60" s="0" t="n">
-        <v>1</v>
+        <v>257</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="H60" s="0" t="s">
+        <v>199</v>
       </c>
       <c r="I60" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J60" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="L60" s="0" t="s">
-        <v>199</v>
+      <c r="L60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="S60" s="0" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3234,37 +4207,55 @@
         <v>24733133</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>201</v>
+        <v>261</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E61" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="G61" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="H61" s="0" t="n">
-        <v>0</v>
+        <v>181</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="H61" s="0" t="s">
+        <v>199</v>
       </c>
       <c r="I61" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K61" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="L61" s="0" t="s">
+      <c r="K61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" s="0" t="s">
         <v>203</v>
+      </c>
+      <c r="Q61" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="S61" s="0" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3272,37 +4263,46 @@
         <v>24840785</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>204</v>
+        <v>265</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E62" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="G62" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="H62" s="0" t="n">
-        <v>1</v>
+        <v>105</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H62" s="0" t="s">
+        <v>199</v>
       </c>
       <c r="I62" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J62" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="L62" s="0" t="s">
-        <v>206</v>
+      <c r="L62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="S62" s="0" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3310,37 +4310,46 @@
         <v>24927617</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>207</v>
+        <v>268</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>208</v>
+        <v>269</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E63" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="G63" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="H63" s="0" t="n">
-        <v>0</v>
+        <v>270</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="H63" s="0" t="s">
+        <v>199</v>
       </c>
       <c r="I63" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J63" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="L63" s="0" t="s">
-        <v>210</v>
+        <v>0</v>
+      </c>
+      <c r="L63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P63" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S63" s="0" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3348,37 +4357,55 @@
         <v>1779253</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>211</v>
+        <v>273</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>212</v>
+        <v>274</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E64" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="G64" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="H64" s="0" t="n">
-        <v>0</v>
+        <v>275</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H64" s="0" t="s">
+        <v>199</v>
       </c>
       <c r="I64" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K64" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="L64" s="0" t="s">
-        <v>214</v>
+      <c r="K64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q64" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="S64" s="0" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3386,37 +4413,46 @@
         <v>6106951</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>215</v>
+        <v>279</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>165</v>
+        <v>217</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E65" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G65" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="H65" s="0" t="n">
-        <v>1</v>
+        <v>280</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H65" s="0" t="s">
+        <v>199</v>
       </c>
       <c r="I65" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J65" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="L65" s="0" t="s">
-        <v>217</v>
+      <c r="L65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="S65" s="0" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3424,37 +4460,55 @@
         <v>8667442</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>218</v>
+        <v>283</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>219</v>
+        <v>284</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E66" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G66" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="H66" s="0" t="n">
-        <v>0</v>
+        <v>285</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="H66" s="0" t="s">
+        <v>199</v>
       </c>
       <c r="I66" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K66" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="L66" s="0" t="s">
-        <v>221</v>
+      <c r="K66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q66" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="S66" s="0" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3462,37 +4516,46 @@
         <v>9071336</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>222</v>
+        <v>289</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>223</v>
+        <v>290</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E67" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="G67" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="H67" s="0" t="n">
-        <v>1</v>
+        <v>291</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H67" s="0" t="s">
+        <v>199</v>
       </c>
       <c r="I67" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J67" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="L67" s="0" t="s">
-        <v>225</v>
+      <c r="L67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="S67" s="0" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3500,37 +4563,46 @@
         <v>9071336</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>226</v>
+        <v>294</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>223</v>
+        <v>290</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E68" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="G68" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="H68" s="0" t="n">
-        <v>1</v>
+        <v>291</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="H68" s="0" t="s">
+        <v>199</v>
       </c>
       <c r="I68" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J68" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="L68" s="0" t="s">
-        <v>225</v>
+      <c r="L68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P68" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="S68" s="0" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3538,37 +4610,46 @@
         <v>9428298</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>228</v>
+        <v>296</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>128</v>
+        <v>170</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E69" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="G69" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="H69" s="0" t="n">
-        <v>0</v>
+        <v>297</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="H69" s="0" t="s">
+        <v>199</v>
       </c>
       <c r="I69" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="L69" s="0" t="s">
-        <v>230</v>
+        <v>0</v>
+      </c>
+      <c r="L69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P69" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="S69" s="0" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3576,37 +4657,55 @@
         <v>9578276</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>231</v>
+        <v>300</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>232</v>
+        <v>301</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E70" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="G70" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="H70" s="0" t="n">
-        <v>0</v>
+        <v>302</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="H70" s="0" t="s">
+        <v>199</v>
       </c>
       <c r="I70" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K70" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="L70" s="0" t="s">
-        <v>234</v>
+      <c r="K70" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q70" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="S70" s="0" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3614,37 +4713,46 @@
         <v>11745287</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>235</v>
+        <v>306</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>236</v>
+        <v>307</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E71" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="G71" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="H71" s="0" t="n">
-        <v>1</v>
+        <v>308</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="H71" s="0" t="s">
+        <v>199</v>
       </c>
       <c r="I71" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J71" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="L71" s="0" t="s">
-        <v>238</v>
+      <c r="L71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="S71" s="0" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3652,37 +4760,46 @@
         <v>12119460</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>222</v>
+        <v>289</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>239</v>
+        <v>311</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E72" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="G72" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="H72" s="0" t="n">
-        <v>1</v>
+        <v>312</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="H72" s="0" t="s">
+        <v>199</v>
       </c>
       <c r="I72" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J72" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="L72" s="0" t="s">
-        <v>241</v>
+      <c r="L72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P72" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="S72" s="0" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3690,37 +4807,46 @@
         <v>17223814</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>242</v>
+        <v>315</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>243</v>
+        <v>316</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E73" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="G73" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="H73" s="0" t="n">
-        <v>1</v>
+        <v>317</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="H73" s="0" t="s">
+        <v>199</v>
       </c>
       <c r="I73" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J73" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="L73" s="0" t="s">
-        <v>245</v>
+      <c r="L73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P73" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="S73" s="0" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3728,37 +4854,46 @@
         <v>17356399</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>247</v>
+        <v>321</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E74" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="G74" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="H74" s="0" t="n">
-        <v>1</v>
+        <v>322</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="H74" s="0" t="s">
+        <v>199</v>
       </c>
       <c r="I74" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J74" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="L74" s="0" t="s">
-        <v>249</v>
+      <c r="L74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P74" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="S74" s="0" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3766,37 +4901,46 @@
         <v>17356399</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>250</v>
+        <v>325</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>251</v>
+        <v>326</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E75" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="G75" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="H75" s="0" t="n">
-        <v>1</v>
+        <v>322</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="H75" s="0" t="s">
+        <v>199</v>
       </c>
       <c r="I75" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J75" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="L75" s="0" t="s">
-        <v>249</v>
+      <c r="L75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P75" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="S75" s="0" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3804,37 +4948,46 @@
         <v>18987260</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>253</v>
+        <v>328</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E76" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="G76" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="H76" s="0" t="n">
-        <v>0</v>
+        <v>329</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="H76" s="0" t="s">
+        <v>199</v>
       </c>
       <c r="I76" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J76" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="L76" s="0" t="s">
-        <v>255</v>
+        <v>0</v>
+      </c>
+      <c r="L76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P76" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="S76" s="0" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3842,37 +4995,46 @@
         <v>19139825</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>256</v>
+        <v>332</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>257</v>
+        <v>333</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E77" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="G77" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="H77" s="0" t="n">
-        <v>1</v>
+        <v>334</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="H77" s="0" t="s">
+        <v>199</v>
       </c>
       <c r="I77" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J77" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="L77" s="0" t="s">
-        <v>259</v>
+      <c r="L77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O77" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P77" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="S77" s="0" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3880,118 +5042,204 @@
         <v>19549709</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>260</v>
+        <v>337</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E78" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="G78" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="H78" s="0" t="n">
-        <v>1</v>
+        <v>161</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="H78" s="0" t="s">
+        <v>199</v>
       </c>
       <c r="I78" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J78" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="L78" s="0" t="s">
-        <v>262</v>
+      <c r="L78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O78" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P78" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="S78" s="0" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="https://crowdflower.com/jobs/767262/units/773932432"/>
-    <hyperlink ref="F3" r:id="rId2" display="https://crowdflower.com/jobs/767262/units/773932578"/>
-    <hyperlink ref="F4" r:id="rId3" display="https://crowdflower.com/jobs/767262/units/773932735"/>
-    <hyperlink ref="F5" r:id="rId4" display="https://crowdflower.com/jobs/767262/units/773932960"/>
-    <hyperlink ref="F6" r:id="rId5" display="https://crowdflower.com/jobs/767262/units/773932961"/>
-    <hyperlink ref="F7" r:id="rId6" display="https://crowdflower.com/jobs/767262/units/773932965"/>
-    <hyperlink ref="F8" r:id="rId7" display="https://crowdflower.com/jobs/767262/units/773932970"/>
-    <hyperlink ref="F9" r:id="rId8" display="https://crowdflower.com/jobs/767262/units/773932976"/>
-    <hyperlink ref="F10" r:id="rId9" display="https://crowdflower.com/jobs/767262/units/773933604"/>
-    <hyperlink ref="F11" r:id="rId10" display="https://crowdflower.com/jobs/767262/units/773933843"/>
-    <hyperlink ref="F12" r:id="rId11" display="https://crowdflower.com/jobs/767262/units/773933846"/>
-    <hyperlink ref="F13" r:id="rId12" display="https://crowdflower.com/jobs/767262/units/773934294"/>
-    <hyperlink ref="F14" r:id="rId13" display="https://crowdflower.com/jobs/767262/units/773931702"/>
-    <hyperlink ref="F15" r:id="rId14" display="https://crowdflower.com/jobs/767262/units/773931741"/>
-    <hyperlink ref="F16" r:id="rId15" display="https://crowdflower.com/jobs/767262/units/773931810"/>
-    <hyperlink ref="F17" r:id="rId16" display="https://crowdflower.com/jobs/767262/units/773931814"/>
-    <hyperlink ref="F18" r:id="rId17" display="https://crowdflower.com/jobs/767262/units/773931818"/>
-    <hyperlink ref="F19" r:id="rId18" display="https://crowdflower.com/jobs/767262/units/773931819"/>
-    <hyperlink ref="F20" r:id="rId19" display="https://crowdflower.com/jobs/767262/units/773931821"/>
-    <hyperlink ref="F21" r:id="rId20" display="https://crowdflower.com/jobs/767262/units/773931822"/>
-    <hyperlink ref="F22" r:id="rId21" display="https://crowdflower.com/jobs/767262/units/773931823"/>
-    <hyperlink ref="F23" r:id="rId22" display="https://crowdflower.com/jobs/767262/units/773931824"/>
-    <hyperlink ref="F24" r:id="rId23" display="https://crowdflower.com/jobs/767262/units/773932094"/>
-    <hyperlink ref="F25" r:id="rId24" display="https://crowdflower.com/jobs/767262/units/773932096"/>
-    <hyperlink ref="F26" r:id="rId25" display="https://crowdflower.com/jobs/767262/units/773932216"/>
-    <hyperlink ref="F27" r:id="rId26" display="https://crowdflower.com/jobs/767273/units/773936652"/>
-    <hyperlink ref="F28" r:id="rId27" display="https://crowdflower.com/jobs/767273/units/773936654"/>
-    <hyperlink ref="F29" r:id="rId28" display="https://crowdflower.com/jobs/767273/units/773936980"/>
-    <hyperlink ref="F30" r:id="rId29" display="https://crowdflower.com/jobs/767273/units/773937063"/>
-    <hyperlink ref="F31" r:id="rId30" display="https://crowdflower.com/jobs/767273/units/773937345"/>
-    <hyperlink ref="F32" r:id="rId31" display="https://crowdflower.com/jobs/767273/units/773938291"/>
-    <hyperlink ref="F33" r:id="rId32" display="https://crowdflower.com/jobs/767273/units/773938423"/>
-    <hyperlink ref="F34" r:id="rId33" display="https://crowdflower.com/jobs/767273/units/773938461"/>
-    <hyperlink ref="F35" r:id="rId34" display="https://crowdflower.com/jobs/767273/units/773938505"/>
-    <hyperlink ref="F36" r:id="rId35" display="https://crowdflower.com/jobs/767273/units/773938609"/>
-    <hyperlink ref="F37" r:id="rId36" display="https://crowdflower.com/jobs/767273/units/773936124"/>
-    <hyperlink ref="F38" r:id="rId37" display="https://crowdflower.com/jobs/767273/units/773936161"/>
-    <hyperlink ref="F39" r:id="rId38" display="https://crowdflower.com/jobs/767273/units/773936286"/>
-    <hyperlink ref="F40" r:id="rId39" display="https://crowdflower.com/jobs/767273/units/773936333"/>
-    <hyperlink ref="F41" r:id="rId40" display="https://crowdflower.com/jobs/767273/units/773936462"/>
-    <hyperlink ref="F42" r:id="rId41" display="https://crowdflower.com/jobs/767262/units/773932431"/>
-    <hyperlink ref="F43" r:id="rId42" display="https://crowdflower.com/jobs/767262/units/773932434"/>
-    <hyperlink ref="F44" r:id="rId43" display="https://crowdflower.com/jobs/767262/units/773932438"/>
-    <hyperlink ref="F45" r:id="rId44" display="https://crowdflower.com/jobs/767262/units/773932444"/>
-    <hyperlink ref="F46" r:id="rId45" display="https://crowdflower.com/jobs/767262/units/773932658"/>
-    <hyperlink ref="F47" r:id="rId46" display="https://crowdflower.com/jobs/767262/units/773932672"/>
-    <hyperlink ref="F48" r:id="rId47" display="https://crowdflower.com/jobs/767262/units/773932679"/>
-    <hyperlink ref="F49" r:id="rId48" display="https://crowdflower.com/jobs/767262/units/773932793"/>
-    <hyperlink ref="F50" r:id="rId49" display="https://crowdflower.com/jobs/767262/units/773932790"/>
-    <hyperlink ref="F51" r:id="rId50" display="https://crowdflower.com/jobs/767262/units/773932317"/>
-    <hyperlink ref="F52" r:id="rId51" display="https://crowdflower.com/jobs/767262/units/773933383"/>
-    <hyperlink ref="F53" r:id="rId52" display="https://crowdflower.com/jobs/767262/units/773933386"/>
-    <hyperlink ref="F54" r:id="rId53" display="https://crowdflower.com/jobs/767262/units/773933387"/>
-    <hyperlink ref="F55" r:id="rId54" display="https://crowdflower.com/jobs/767262/units/773933390"/>
-    <hyperlink ref="F56" r:id="rId55" display="https://crowdflower.com/jobs/767262/units/773933551"/>
-    <hyperlink ref="F57" r:id="rId56" display="https://crowdflower.com/jobs/767262/units/773934074"/>
-    <hyperlink ref="F58" r:id="rId57" display="https://crowdflower.com/jobs/767262/units/773934549"/>
-    <hyperlink ref="F59" r:id="rId58" display="https://crowdflower.com/jobs/767262/units/773931709"/>
-    <hyperlink ref="F60" r:id="rId59" display="https://crowdflower.com/jobs/767262/units/773931964"/>
-    <hyperlink ref="F61" r:id="rId60" display="https://crowdflower.com/jobs/767262/units/773932030"/>
-    <hyperlink ref="F62" r:id="rId61" display="https://crowdflower.com/jobs/767262/units/773932089"/>
-    <hyperlink ref="F63" r:id="rId62" display="https://crowdflower.com/jobs/767262/units/773932161"/>
-    <hyperlink ref="F64" r:id="rId63" display="https://crowdflower.com/jobs/767273/units/773936781"/>
-    <hyperlink ref="F65" r:id="rId64" display="https://crowdflower.com/jobs/767273/units/773937213"/>
-    <hyperlink ref="F66" r:id="rId65" display="https://crowdflower.com/jobs/767273/units/773937478"/>
-    <hyperlink ref="F67" r:id="rId66" display="https://crowdflower.com/jobs/767273/units/773937546"/>
-    <hyperlink ref="F68" r:id="rId67" display="https://crowdflower.com/jobs/767273/units/773937547"/>
-    <hyperlink ref="F69" r:id="rId68" display="https://crowdflower.com/jobs/767273/units/773937562"/>
-    <hyperlink ref="F70" r:id="rId69" display="https://crowdflower.com/jobs/767273/units/773936537"/>
-    <hyperlink ref="F71" r:id="rId70" display="https://crowdflower.com/jobs/767273/units/773937714"/>
-    <hyperlink ref="F72" r:id="rId71" display="https://crowdflower.com/jobs/767273/units/773937758"/>
-    <hyperlink ref="F73" r:id="rId72" display="https://crowdflower.com/jobs/767273/units/773938128"/>
-    <hyperlink ref="F74" r:id="rId73" display="https://crowdflower.com/jobs/767273/units/773938201"/>
-    <hyperlink ref="F75" r:id="rId74" display="https://crowdflower.com/jobs/767273/units/773938194"/>
-    <hyperlink ref="F76" r:id="rId75" display="https://crowdflower.com/jobs/767273/units/773938336"/>
-    <hyperlink ref="F77" r:id="rId76" display="https://crowdflower.com/jobs/767273/units/773938372"/>
-    <hyperlink ref="F78" r:id="rId77" display="https://crowdflower.com/jobs/767273/units/773938495"/>
+    <hyperlink ref="F2" r:id="rId1" display="http://ncbi.nlm.nih.gov/pubmed/?term=448423"/>
+    <hyperlink ref="G2" r:id="rId2" display="https://crowdflower.com/jobs/767262/units/773932432"/>
+    <hyperlink ref="F3" r:id="rId3" display="http://ncbi.nlm.nih.gov/pubmed/?term=1735570"/>
+    <hyperlink ref="G3" r:id="rId4" display="https://crowdflower.com/jobs/767262/units/773932578"/>
+    <hyperlink ref="F4" r:id="rId5" display="http://ncbi.nlm.nih.gov/pubmed/?term=2907577"/>
+    <hyperlink ref="G4" r:id="rId6" display="https://crowdflower.com/jobs/767262/units/773932735"/>
+    <hyperlink ref="F5" r:id="rId7" display="http://ncbi.nlm.nih.gov/pubmed/?term=3975902"/>
+    <hyperlink ref="G5" r:id="rId8" display="https://crowdflower.com/jobs/767262/units/773932960"/>
+    <hyperlink ref="F6" r:id="rId9" display="http://ncbi.nlm.nih.gov/pubmed/?term=3975902"/>
+    <hyperlink ref="G6" r:id="rId10" display="https://crowdflower.com/jobs/767262/units/773932961"/>
+    <hyperlink ref="F7" r:id="rId11" display="http://ncbi.nlm.nih.gov/pubmed/?term=3987172"/>
+    <hyperlink ref="G7" r:id="rId12" display="https://crowdflower.com/jobs/767262/units/773932965"/>
+    <hyperlink ref="F8" r:id="rId13" display="http://ncbi.nlm.nih.gov/pubmed/?term=3990093"/>
+    <hyperlink ref="G8" r:id="rId14" display="https://crowdflower.com/jobs/767262/units/773932970"/>
+    <hyperlink ref="F9" r:id="rId15" display="http://ncbi.nlm.nih.gov/pubmed/?term=3990093"/>
+    <hyperlink ref="G9" r:id="rId16" display="https://crowdflower.com/jobs/767262/units/773932976"/>
+    <hyperlink ref="F10" r:id="rId17" display="http://ncbi.nlm.nih.gov/pubmed/?term=10939760"/>
+    <hyperlink ref="G10" r:id="rId18" display="https://crowdflower.com/jobs/767262/units/773933604"/>
+    <hyperlink ref="F11" r:id="rId19" display="http://ncbi.nlm.nih.gov/pubmed/?term=12828076"/>
+    <hyperlink ref="G11" r:id="rId20" display="https://crowdflower.com/jobs/767262/units/773933843"/>
+    <hyperlink ref="F12" r:id="rId21" display="http://ncbi.nlm.nih.gov/pubmed/?term=12828076"/>
+    <hyperlink ref="G12" r:id="rId22" display="https://crowdflower.com/jobs/767262/units/773933846"/>
+    <hyperlink ref="F13" r:id="rId23" display="http://ncbi.nlm.nih.gov/pubmed/?term=18801087"/>
+    <hyperlink ref="G13" r:id="rId24" display="https://crowdflower.com/jobs/767262/units/773934294"/>
+    <hyperlink ref="F14" r:id="rId25" display="http://ncbi.nlm.nih.gov/pubmed/?term=22836123"/>
+    <hyperlink ref="G14" r:id="rId26" display="https://crowdflower.com/jobs/767262/units/773931702"/>
+    <hyperlink ref="F15" r:id="rId27" display="http://ncbi.nlm.nih.gov/pubmed/?term=24040781"/>
+    <hyperlink ref="G15" r:id="rId28" display="https://crowdflower.com/jobs/767262/units/773931741"/>
+    <hyperlink ref="F16" r:id="rId29" display="http://ncbi.nlm.nih.gov/pubmed/?term=24190587"/>
+    <hyperlink ref="G16" r:id="rId30" display="https://crowdflower.com/jobs/767262/units/773931810"/>
+    <hyperlink ref="F17" r:id="rId31" display="http://ncbi.nlm.nih.gov/pubmed/?term=24209900"/>
+    <hyperlink ref="G17" r:id="rId32" display="https://crowdflower.com/jobs/767262/units/773931814"/>
+    <hyperlink ref="F18" r:id="rId33" display="http://ncbi.nlm.nih.gov/pubmed/?term=24209900"/>
+    <hyperlink ref="G18" r:id="rId34" display="https://crowdflower.com/jobs/767262/units/773931818"/>
+    <hyperlink ref="F19" r:id="rId35" display="http://ncbi.nlm.nih.gov/pubmed/?term=24209900"/>
+    <hyperlink ref="G19" r:id="rId36" display="https://crowdflower.com/jobs/767262/units/773931819"/>
+    <hyperlink ref="F20" r:id="rId37" display="http://ncbi.nlm.nih.gov/pubmed/?term=24209900"/>
+    <hyperlink ref="G20" r:id="rId38" display="https://crowdflower.com/jobs/767262/units/773931821"/>
+    <hyperlink ref="F21" r:id="rId39" display="http://ncbi.nlm.nih.gov/pubmed/?term=24209900"/>
+    <hyperlink ref="G21" r:id="rId40" display="https://crowdflower.com/jobs/767262/units/773931822"/>
+    <hyperlink ref="F22" r:id="rId41" display="http://ncbi.nlm.nih.gov/pubmed/?term=24209900"/>
+    <hyperlink ref="G22" r:id="rId42" display="https://crowdflower.com/jobs/767262/units/773931823"/>
+    <hyperlink ref="F23" r:id="rId43" display="http://ncbi.nlm.nih.gov/pubmed/?term=24209900"/>
+    <hyperlink ref="G23" r:id="rId44" display="https://crowdflower.com/jobs/767262/units/773931824"/>
+    <hyperlink ref="F24" r:id="rId45" display="http://ncbi.nlm.nih.gov/pubmed/?term=24840785"/>
+    <hyperlink ref="G24" r:id="rId46" display="https://crowdflower.com/jobs/767262/units/773932094"/>
+    <hyperlink ref="F25" r:id="rId47" display="http://ncbi.nlm.nih.gov/pubmed/?term=24840785"/>
+    <hyperlink ref="G25" r:id="rId48" display="https://crowdflower.com/jobs/767262/units/773932096"/>
+    <hyperlink ref="F26" r:id="rId49" display="http://ncbi.nlm.nih.gov/pubmed/?term=25071004"/>
+    <hyperlink ref="G26" r:id="rId50" display="https://crowdflower.com/jobs/767262/units/773932216"/>
+    <hyperlink ref="F27" r:id="rId51" display="http://ncbi.nlm.nih.gov/pubmed/?term=733189"/>
+    <hyperlink ref="G27" r:id="rId52" display="https://crowdflower.com/jobs/767273/units/773936652"/>
+    <hyperlink ref="F28" r:id="rId53" display="http://ncbi.nlm.nih.gov/pubmed/?term=733189"/>
+    <hyperlink ref="G28" r:id="rId54" display="https://crowdflower.com/jobs/767273/units/773936654"/>
+    <hyperlink ref="F29" r:id="rId55" display="http://ncbi.nlm.nih.gov/pubmed/?term=3289726"/>
+    <hyperlink ref="G29" r:id="rId56" display="https://crowdflower.com/jobs/767273/units/773936980"/>
+    <hyperlink ref="F30" r:id="rId57" display="http://ncbi.nlm.nih.gov/pubmed/?term=3323259"/>
+    <hyperlink ref="G30" r:id="rId58" display="https://crowdflower.com/jobs/767273/units/773937063"/>
+    <hyperlink ref="F31" r:id="rId59" display="http://ncbi.nlm.nih.gov/pubmed/?term=7479194"/>
+    <hyperlink ref="G31" r:id="rId60" display="https://crowdflower.com/jobs/767273/units/773937345"/>
+    <hyperlink ref="F32" r:id="rId61" display="http://ncbi.nlm.nih.gov/pubmed/?term=18422462"/>
+    <hyperlink ref="G32" r:id="rId62" display="https://crowdflower.com/jobs/767273/units/773938291"/>
+    <hyperlink ref="F33" r:id="rId63" display="http://ncbi.nlm.nih.gov/pubmed/?term=19392810"/>
+    <hyperlink ref="G33" r:id="rId64" display="https://crowdflower.com/jobs/767273/units/773938423"/>
+    <hyperlink ref="F34" r:id="rId65" display="http://ncbi.nlm.nih.gov/pubmed/?term=19531695"/>
+    <hyperlink ref="G34" r:id="rId66" display="https://crowdflower.com/jobs/767273/units/773938461"/>
+    <hyperlink ref="F35" r:id="rId67" display="http://ncbi.nlm.nih.gov/pubmed/?term=19549709"/>
+    <hyperlink ref="G35" r:id="rId68" display="https://crowdflower.com/jobs/767273/units/773938505"/>
+    <hyperlink ref="F36" r:id="rId69" display="http://ncbi.nlm.nih.gov/pubmed/?term=20927253"/>
+    <hyperlink ref="G36" r:id="rId70" display="https://crowdflower.com/jobs/767273/units/773938609"/>
+    <hyperlink ref="F37" r:id="rId71" display="http://ncbi.nlm.nih.gov/pubmed/?term=24438483"/>
+    <hyperlink ref="G37" r:id="rId72" display="https://crowdflower.com/jobs/767273/units/773936124"/>
+    <hyperlink ref="F38" r:id="rId73" display="http://ncbi.nlm.nih.gov/pubmed/?term=24582773"/>
+    <hyperlink ref="G38" r:id="rId74" display="https://crowdflower.com/jobs/767273/units/773936161"/>
+    <hyperlink ref="F39" r:id="rId75" display="http://ncbi.nlm.nih.gov/pubmed/?term=24733133"/>
+    <hyperlink ref="G39" r:id="rId76" display="https://crowdflower.com/jobs/767273/units/773936286"/>
+    <hyperlink ref="F40" r:id="rId77" display="http://ncbi.nlm.nih.gov/pubmed/?term=24894748"/>
+    <hyperlink ref="G40" r:id="rId78" display="https://crowdflower.com/jobs/767273/units/773936333"/>
+    <hyperlink ref="F41" r:id="rId79" display="http://ncbi.nlm.nih.gov/pubmed/?term=25907210"/>
+    <hyperlink ref="G41" r:id="rId80" display="https://crowdflower.com/jobs/767273/units/773936462"/>
+    <hyperlink ref="F42" r:id="rId81" display="http://ncbi.nlm.nih.gov/pubmed/?term=256433"/>
+    <hyperlink ref="G42" r:id="rId82" display="https://crowdflower.com/jobs/767262/units/773932431"/>
+    <hyperlink ref="F43" r:id="rId83" display="http://ncbi.nlm.nih.gov/pubmed/?term=448423"/>
+    <hyperlink ref="G43" r:id="rId84" display="https://crowdflower.com/jobs/767262/units/773932434"/>
+    <hyperlink ref="F44" r:id="rId85" display="http://ncbi.nlm.nih.gov/pubmed/?term=448423"/>
+    <hyperlink ref="G44" r:id="rId86" display="https://crowdflower.com/jobs/767262/units/773932438"/>
+    <hyperlink ref="F45" r:id="rId87" display="http://ncbi.nlm.nih.gov/pubmed/?term=448423"/>
+    <hyperlink ref="G45" r:id="rId88" display="https://crowdflower.com/jobs/767262/units/773932444"/>
+    <hyperlink ref="F46" r:id="rId89" display="http://ncbi.nlm.nih.gov/pubmed/?term=2553470"/>
+    <hyperlink ref="G46" r:id="rId90" display="https://crowdflower.com/jobs/767262/units/773932658"/>
+    <hyperlink ref="F47" r:id="rId91" display="http://ncbi.nlm.nih.gov/pubmed/?term=2553470"/>
+    <hyperlink ref="G47" r:id="rId92" display="https://crowdflower.com/jobs/767262/units/773932672"/>
+    <hyperlink ref="F48" r:id="rId93" display="http://ncbi.nlm.nih.gov/pubmed/?term=2553470"/>
+    <hyperlink ref="G48" r:id="rId94" display="https://crowdflower.com/jobs/767262/units/773932679"/>
+    <hyperlink ref="F49" r:id="rId95" display="http://ncbi.nlm.nih.gov/pubmed/?term=3191389"/>
+    <hyperlink ref="G49" r:id="rId96" display="https://crowdflower.com/jobs/767262/units/773932793"/>
+    <hyperlink ref="F50" r:id="rId97" display="http://ncbi.nlm.nih.gov/pubmed/?term=3191389"/>
+    <hyperlink ref="G50" r:id="rId98" display="https://crowdflower.com/jobs/767262/units/773932790"/>
+    <hyperlink ref="F51" r:id="rId99" display="http://ncbi.nlm.nih.gov/pubmed/?term=3711722"/>
+    <hyperlink ref="G51" r:id="rId100" display="https://crowdflower.com/jobs/767262/units/773932317"/>
+    <hyperlink ref="F52" r:id="rId101" display="http://ncbi.nlm.nih.gov/pubmed/?term=9061777"/>
+    <hyperlink ref="G52" r:id="rId102" display="https://crowdflower.com/jobs/767262/units/773933383"/>
+    <hyperlink ref="F53" r:id="rId103" display="http://ncbi.nlm.nih.gov/pubmed/?term=9061777"/>
+    <hyperlink ref="G53" r:id="rId104" display="https://crowdflower.com/jobs/767262/units/773933386"/>
+    <hyperlink ref="F54" r:id="rId105" display="http://ncbi.nlm.nih.gov/pubmed/?term=9061777"/>
+    <hyperlink ref="G54" r:id="rId106" display="https://crowdflower.com/jobs/767262/units/773933387"/>
+    <hyperlink ref="F55" r:id="rId107" display="http://ncbi.nlm.nih.gov/pubmed/?term=9061777"/>
+    <hyperlink ref="G55" r:id="rId108" display="https://crowdflower.com/jobs/767262/units/773933390"/>
+    <hyperlink ref="F56" r:id="rId109" display="http://ncbi.nlm.nih.gov/pubmed/?term=10427794"/>
+    <hyperlink ref="G56" r:id="rId110" display="https://crowdflower.com/jobs/767262/units/773933551"/>
+    <hyperlink ref="F57" r:id="rId111" display="http://ncbi.nlm.nih.gov/pubmed/?term=16906379"/>
+    <hyperlink ref="G57" r:id="rId112" display="https://crowdflower.com/jobs/767262/units/773934074"/>
+    <hyperlink ref="F58" r:id="rId113" display="http://ncbi.nlm.nih.gov/pubmed/?term=20447294"/>
+    <hyperlink ref="G58" r:id="rId114" display="https://crowdflower.com/jobs/767262/units/773934549"/>
+    <hyperlink ref="F59" r:id="rId115" display="http://ncbi.nlm.nih.gov/pubmed/?term=23433219"/>
+    <hyperlink ref="G59" r:id="rId116" display="https://crowdflower.com/jobs/767262/units/773931709"/>
+    <hyperlink ref="F60" r:id="rId117" display="http://ncbi.nlm.nih.gov/pubmed/?term=24665854"/>
+    <hyperlink ref="G60" r:id="rId118" display="https://crowdflower.com/jobs/767262/units/773931964"/>
+    <hyperlink ref="F61" r:id="rId119" display="http://ncbi.nlm.nih.gov/pubmed/?term=24733133"/>
+    <hyperlink ref="G61" r:id="rId120" display="https://crowdflower.com/jobs/767262/units/773932030"/>
+    <hyperlink ref="F62" r:id="rId121" display="http://ncbi.nlm.nih.gov/pubmed/?term=24840785"/>
+    <hyperlink ref="G62" r:id="rId122" display="https://crowdflower.com/jobs/767262/units/773932089"/>
+    <hyperlink ref="F63" r:id="rId123" display="http://ncbi.nlm.nih.gov/pubmed/?term=24927617"/>
+    <hyperlink ref="G63" r:id="rId124" display="https://crowdflower.com/jobs/767262/units/773932161"/>
+    <hyperlink ref="F64" r:id="rId125" display="http://ncbi.nlm.nih.gov/pubmed/?term=1779253"/>
+    <hyperlink ref="G64" r:id="rId126" display="https://crowdflower.com/jobs/767273/units/773936781"/>
+    <hyperlink ref="F65" r:id="rId127" display="http://ncbi.nlm.nih.gov/pubmed/?term=6106951"/>
+    <hyperlink ref="G65" r:id="rId128" display="https://crowdflower.com/jobs/767273/units/773937213"/>
+    <hyperlink ref="F66" r:id="rId129" display="http://ncbi.nlm.nih.gov/pubmed/?term=8667442"/>
+    <hyperlink ref="G66" r:id="rId130" display="https://crowdflower.com/jobs/767273/units/773937478"/>
+    <hyperlink ref="F67" r:id="rId131" display="http://ncbi.nlm.nih.gov/pubmed/?term=9071336"/>
+    <hyperlink ref="G67" r:id="rId132" display="https://crowdflower.com/jobs/767273/units/773937546"/>
+    <hyperlink ref="F68" r:id="rId133" display="http://ncbi.nlm.nih.gov/pubmed/?term=9071336"/>
+    <hyperlink ref="G68" r:id="rId134" display="https://crowdflower.com/jobs/767273/units/773937547"/>
+    <hyperlink ref="F69" r:id="rId135" display="http://ncbi.nlm.nih.gov/pubmed/?term=9428298"/>
+    <hyperlink ref="G69" r:id="rId136" display="https://crowdflower.com/jobs/767273/units/773937562"/>
+    <hyperlink ref="F70" r:id="rId137" display="http://ncbi.nlm.nih.gov/pubmed/?term=9578276"/>
+    <hyperlink ref="G70" r:id="rId138" display="https://crowdflower.com/jobs/767273/units/773936537"/>
+    <hyperlink ref="F71" r:id="rId139" display="http://ncbi.nlm.nih.gov/pubmed/?term=11745287"/>
+    <hyperlink ref="G71" r:id="rId140" display="https://crowdflower.com/jobs/767273/units/773937714"/>
+    <hyperlink ref="F72" r:id="rId141" display="http://ncbi.nlm.nih.gov/pubmed/?term=12119460"/>
+    <hyperlink ref="G72" r:id="rId142" display="https://crowdflower.com/jobs/767273/units/773937758"/>
+    <hyperlink ref="F73" r:id="rId143" display="http://ncbi.nlm.nih.gov/pubmed/?term=17223814"/>
+    <hyperlink ref="G73" r:id="rId144" display="https://crowdflower.com/jobs/767273/units/773938128"/>
+    <hyperlink ref="F74" r:id="rId145" display="http://ncbi.nlm.nih.gov/pubmed/?term=17356399"/>
+    <hyperlink ref="G74" r:id="rId146" display="https://crowdflower.com/jobs/767273/units/773938201"/>
+    <hyperlink ref="F75" r:id="rId147" display="http://ncbi.nlm.nih.gov/pubmed/?term=17356399"/>
+    <hyperlink ref="G75" r:id="rId148" display="https://crowdflower.com/jobs/767273/units/773938194"/>
+    <hyperlink ref="F76" r:id="rId149" display="http://ncbi.nlm.nih.gov/pubmed/?term=18987260"/>
+    <hyperlink ref="G76" r:id="rId150" display="https://crowdflower.com/jobs/767273/units/773938336"/>
+    <hyperlink ref="F77" r:id="rId151" display="http://ncbi.nlm.nih.gov/pubmed/?term=19139825"/>
+    <hyperlink ref="G77" r:id="rId152" display="https://crowdflower.com/jobs/767273/units/773938372"/>
+    <hyperlink ref="F78" r:id="rId153" display="http://ncbi.nlm.nih.gov/pubmed/?term=19549709"/>
+    <hyperlink ref="G78" r:id="rId154" display="https://crowdflower.com/jobs/767273/units/773938495"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/crowd_only/data/final_eval/analysis/crowd_testset_perfect_ner_errors.xlsx
+++ b/crowd_only/data/final_eval/analysis/crowd_testset_perfect_ner_errors.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="340">
   <si>
     <t>pmid</t>
   </si>
@@ -632,6 +632,9 @@
     <t>if anything it’s a "treats" relationship</t>
   </si>
   <si>
+    <t>these I think are examples where sentence scoping hurts</t>
+  </si>
+  <si>
     <t>Text never says that EACA causes SAH. If anything, it only says that EACA is good for treating rebleeding for patients with SAH.</t>
   </si>
   <si>
@@ -639,9 +642,6 @@
   </si>
   <si>
     <t>https://crowdflower.com/jobs/767262/units/773932444</t>
-  </si>
-  <si>
-    <t>these I think are examples where sentence scoping hurts</t>
   </si>
   <si>
     <t>MESH:D008094</t>
@@ -1166,7 +1166,7 @@
   <dimension ref="A1:S78"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S32" activeCellId="0" sqref="S32"/>
+      <selection pane="topLeft" activeCell="Q25" activeCellId="0" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2436,6 +2436,9 @@
       <c r="P25" s="0" t="s">
         <v>49</v>
       </c>
+      <c r="Q25" s="0" t="s">
+        <v>107</v>
+      </c>
       <c r="S25" s="0" t="s">
         <v>108</v>
       </c>
@@ -3384,8 +3387,11 @@
       <c r="Q43" s="0" t="s">
         <v>204</v>
       </c>
+      <c r="R43" s="0" t="s">
+        <v>205</v>
+      </c>
       <c r="S43" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3408,7 +3414,7 @@
         <v>22</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H44" s="0" t="s">
         <v>199</v>
@@ -3437,8 +3443,14 @@
       <c r="P44" s="0" t="s">
         <v>203</v>
       </c>
+      <c r="Q44" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="R44" s="0" t="s">
+        <v>205</v>
+      </c>
       <c r="S44" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3461,7 +3473,7 @@
         <v>22</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>199</v>
@@ -3490,11 +3502,14 @@
       <c r="P45" s="0" t="s">
         <v>203</v>
       </c>
+      <c r="Q45" s="0" t="s">
+        <v>204</v>
+      </c>
       <c r="R45" s="0" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="S45" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/crowd_only/data/final_eval/analysis/crowd_testset_perfect_ner_errors.xlsx
+++ b/crowd_only/data/final_eval/analysis/crowd_testset_perfect_ner_errors.xlsx
@@ -1165,8 +1165,8 @@
   </sheetPr>
   <dimension ref="A1:S78"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q25" activeCellId="0" sqref="Q25"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q62" activeCellId="0" sqref="Q62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4314,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="P62" s="0" t="s">
-        <v>227</v>
+        <v>31</v>
       </c>
       <c r="S62" s="0" t="s">
         <v>267</v>
